--- a/processed_data/small_validation_data/kmeans_results.xlsx
+++ b/processed_data/small_validation_data/kmeans_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="240">
   <si>
     <t>fname</t>
   </si>
@@ -328,6 +328,408 @@
   </si>
   <si>
     <t>dp_pcm</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0014.tif</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0020.tif</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0024.tif</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0025.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0006.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0008.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0009.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0012.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0013.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0014.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0015.tif</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>img_id</t>
+  </si>
+  <si>
+    <t>pixsize</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>aspect_ratio</t>
+  </si>
+  <si>
+    <t>num_pixels</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Rg</t>
+  </si>
+  <si>
+    <t>perimeter</t>
+  </si>
+  <si>
+    <t>circularity</t>
+  </si>
+  <si>
+    <t>zbar_opt</t>
+  </si>
+  <si>
+    <t>center_mass_1</t>
+  </si>
+  <si>
+    <t>center_mass_2</t>
+  </si>
+  <si>
+    <t>dp_pcm</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0014.tif</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0018.tif</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0020.tif</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0024.tif</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0025.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0006.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0008.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0009.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0012.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0013.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0014.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0015.tif</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>img_id</t>
+  </si>
+  <si>
+    <t>pixsize</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>aspect_ratio</t>
+  </si>
+  <si>
+    <t>num_pixels</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Rg</t>
+  </si>
+  <si>
+    <t>perimeter</t>
+  </si>
+  <si>
+    <t>circularity</t>
+  </si>
+  <si>
+    <t>zbar_opt</t>
+  </si>
+  <si>
+    <t>center_mass_1</t>
+  </si>
+  <si>
+    <t>center_mass_2</t>
+  </si>
+  <si>
+    <t>dp_pcm</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0024.tif</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0025.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0008.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0012.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0013.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0014.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0015.tif</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>img_id</t>
+  </si>
+  <si>
+    <t>pixsize</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>aspect_ratio</t>
+  </si>
+  <si>
+    <t>num_pixels</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Rg</t>
+  </si>
+  <si>
+    <t>perimeter</t>
+  </si>
+  <si>
+    <t>circularity</t>
+  </si>
+  <si>
+    <t>zbar_opt</t>
+  </si>
+  <si>
+    <t>center_mass_1</t>
+  </si>
+  <si>
+    <t>center_mass_2</t>
+  </si>
+  <si>
+    <t>dp_pcm</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0024.tif</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0025.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0008.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0012.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0013.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0014.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0015.tif</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>img_id</t>
+  </si>
+  <si>
+    <t>pixsize</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>aspect_ratio</t>
+  </si>
+  <si>
+    <t>num_pixels</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Rg</t>
+  </si>
+  <si>
+    <t>perimeter</t>
+  </si>
+  <si>
+    <t>circularity</t>
+  </si>
+  <si>
+    <t>zbar_opt</t>
+  </si>
+  <si>
+    <t>center_mass_1</t>
+  </si>
+  <si>
+    <t>center_mass_2</t>
+  </si>
+  <si>
+    <t>dp_pcm</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0024.tif</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0025.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0008.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0012.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0013.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0014.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0015.tif</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>img_id</t>
+  </si>
+  <si>
+    <t>pixsize</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>aspect_ratio</t>
+  </si>
+  <si>
+    <t>num_pixels</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Rg</t>
+  </si>
+  <si>
+    <t>perimeter</t>
+  </si>
+  <si>
+    <t>circularity</t>
+  </si>
+  <si>
+    <t>zbar_opt</t>
+  </si>
+  <si>
+    <t>center_mass_1</t>
+  </si>
+  <si>
+    <t>center_mass_2</t>
+  </si>
+  <si>
+    <t>dp_kook</t>
   </si>
   <si>
     <t>dp</t>
@@ -351,7 +753,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -363,16 +765,26 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,8 +809,8 @@
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="13.7109375" customWidth="true"/>
-    <col min="14" max="14" width="14.42578125" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="13.7109375" customWidth="true"/>
     <col min="15" max="15" width="14.28515625" customWidth="true"/>
     <col min="16" max="16" width="14.28515625" customWidth="true"/>
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
@@ -407,343 +819,339 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>92</v>
+        <v>226</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>93</v>
+        <v>227</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0">
-        <v>0.80971659919028338</v>
+        <v>2.9761904761904758</v>
       </c>
       <c r="E2" s="0">
-        <v>43.724696356275302</v>
+        <v>389.88095238095235</v>
       </c>
       <c r="F2" s="0">
-        <v>31.578947368421051</v>
+        <v>190.47619047619045</v>
       </c>
       <c r="G2" s="0">
-        <v>1.3846153846153846</v>
+        <v>2.046875</v>
       </c>
       <c r="H2" s="0">
-        <v>1447</v>
+        <v>5559</v>
       </c>
       <c r="I2" s="0">
-        <v>34.755406090865293</v>
+        <v>250.38835038720606</v>
       </c>
       <c r="J2" s="0">
-        <v>948.71248504319021</v>
+        <v>49240.008503401354</v>
       </c>
       <c r="K2" s="0">
-        <v>13.518993589158073</v>
+        <v>113.1404118313299</v>
       </c>
       <c r="L2" s="0">
-        <v>124.88006815033719</v>
+        <v>1054.7484053124451</v>
       </c>
       <c r="M2" s="0">
-        <v>0.76446608996828358</v>
+        <v>0.55619903163283912</v>
       </c>
       <c r="N2" s="0">
-        <v>-0.067744778792952348</v>
+        <v>0.24698664131345652</v>
       </c>
       <c r="O2" s="0">
-        <v>277.53144436765723</v>
+        <v>502.20219463932364</v>
       </c>
       <c r="P2" s="0">
-        <v>323.63303386316517</v>
+        <v>159.65443425076452</v>
       </c>
       <c r="Q2" s="0">
-        <v>18.26526237989653</v>
+        <v>66.815310478106056</v>
       </c>
       <c r="R2" s="0">
-        <v>18.26526237989653</v>
+        <v>66.815310478106056</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="B3" s="0">
         <v>2</v>
       </c>
       <c r="C3" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0">
-        <v>0.80971659919028338</v>
+        <v>2.9761904761904758</v>
       </c>
       <c r="E3" s="0">
-        <v>782.18623481781378</v>
+        <v>684.5238095238094</v>
       </c>
       <c r="F3" s="0">
-        <v>653.44129554655865</v>
+        <v>598.21428571428567</v>
       </c>
       <c r="G3" s="0">
-        <v>1.1970260223048328</v>
+        <v>1.144278606965174</v>
       </c>
       <c r="H3" s="0">
-        <v>257806</v>
+        <v>18873</v>
       </c>
       <c r="I3" s="0">
-        <v>463.91093765402189</v>
+        <v>461.35608374661712</v>
       </c>
       <c r="J3" s="0">
-        <v>169028.1761707289</v>
+        <v>167171.55612244896</v>
       </c>
       <c r="K3" s="0">
-        <v>238.47962633942575</v>
+        <v>201.42700395800028</v>
       </c>
       <c r="L3" s="0">
-        <v>5435.6275303643724</v>
+        <v>2282.196940958077</v>
       </c>
       <c r="M3" s="0">
-        <v>0.071890183186754053</v>
+        <v>0.40333509392298411</v>
       </c>
       <c r="N3" s="0">
-        <v>0.12715559746805494</v>
+        <v>0.30811336846208326</v>
       </c>
       <c r="O3" s="0">
-        <v>435.00935587224501</v>
+        <v>596.59089704869393</v>
       </c>
       <c r="P3" s="0">
-        <v>529.76373319472782</v>
+        <v>292.1288083505537</v>
       </c>
       <c r="Q3" s="0">
-        <v>28.268193541459311</v>
+        <v>62.253827758999776</v>
       </c>
       <c r="R3" s="0">
-        <v>28.268193541459311</v>
+        <v>62.253827758999776</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="B4" s="0">
         <v>3</v>
       </c>
       <c r="C4" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="0">
-        <v>0.80971659919028338</v>
+        <v>2.9761904761904758</v>
       </c>
       <c r="E4" s="0">
-        <v>29.1497975708502</v>
+        <v>56.547619047619044</v>
       </c>
       <c r="F4" s="0">
-        <v>17.813765182186234</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="G4" s="0">
-        <v>1.6363636363636362</v>
+        <v>1.3571428571428572</v>
       </c>
       <c r="H4" s="0">
-        <v>652</v>
+        <v>189</v>
       </c>
       <c r="I4" s="0">
-        <v>23.329847480280428</v>
+        <v>46.168597730592943</v>
       </c>
       <c r="J4" s="0">
-        <v>427.47791309478924</v>
+        <v>1674.1071428571427</v>
       </c>
       <c r="K4" s="0">
-        <v>8.9145536097845994</v>
+        <v>17.255809716571726</v>
       </c>
       <c r="L4" s="0">
-        <v>82.055456564480565</v>
+        <v>164.87579608227804</v>
       </c>
       <c r="M4" s="0">
-        <v>0.79782678399948359</v>
+        <v>0.77389012039604399</v>
       </c>
       <c r="N4" s="0">
-        <v>0.69769528720126039</v>
+        <v>0.25954759297501795</v>
       </c>
       <c r="O4" s="0">
-        <v>994.19938650306744</v>
+        <v>511.20634920634922</v>
       </c>
       <c r="P4" s="0">
-        <v>467.20398773006133</v>
-      </c>
-      <c r="Q4" s="0">
-        <v>12.622621852621855</v>
-      </c>
-      <c r="R4" s="0">
-        <v>12.622621852621855</v>
-      </c>
+        <v>239.81481481481481</v>
+      </c>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="B5" s="0">
         <v>4</v>
       </c>
       <c r="C5" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="0">
-        <v>0.80971659919028338</v>
+        <v>2.9761904761904758</v>
       </c>
       <c r="E5" s="0">
-        <v>8.097165991902834</v>
+        <v>675.59523809523796</v>
       </c>
       <c r="F5" s="0">
-        <v>7.2874493927125501</v>
+        <v>550.59523809523807</v>
       </c>
       <c r="G5" s="0">
-        <v>1.1111111111111112</v>
+        <v>1.2270270270270269</v>
       </c>
       <c r="H5" s="0">
-        <v>87</v>
+        <v>14713</v>
       </c>
       <c r="I5" s="0">
-        <v>8.5221216251890599</v>
+        <v>407.34876073992211</v>
       </c>
       <c r="J5" s="0">
-        <v>57.040764477372186</v>
+        <v>130323.48356009068</v>
       </c>
       <c r="K5" s="0">
-        <v>3.1813634035282328</v>
+        <v>223.41765858538491</v>
       </c>
       <c r="L5" s="0">
-        <v>28.252803714810838</v>
+        <v>2175.0307544891325</v>
       </c>
       <c r="M5" s="0">
-        <v>0.89799123351921384</v>
+        <v>0.34617981370444256</v>
       </c>
       <c r="N5" s="0">
-        <v>0.61684339597333859</v>
+        <v>0.15610101968268428</v>
       </c>
       <c r="O5" s="0">
-        <v>917.12643678160919</v>
+        <v>198.19846394345137</v>
       </c>
       <c r="P5" s="0">
-        <v>553.77011494252872</v>
+        <v>876.1670631414396</v>
       </c>
       <c r="Q5" s="0">
-        <v>5.1360538229647918</v>
+        <v>60.702613257056953</v>
       </c>
       <c r="R5" s="0">
-        <v>5.1360538229647918</v>
+        <v>60.702613257056953</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="B6" s="0">
         <v>5</v>
       </c>
       <c r="C6" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="0">
-        <v>1.7421602787456445</v>
+        <v>2.9761904761904758</v>
       </c>
       <c r="E6" s="0">
-        <v>667.24738675958179</v>
+        <v>291.66666666666663</v>
       </c>
       <c r="F6" s="0">
-        <v>552.26480836236931</v>
+        <v>241.07142857142856</v>
       </c>
       <c r="G6" s="0">
-        <v>1.2082018927444793</v>
+        <v>1.2098765432098764</v>
       </c>
       <c r="H6" s="0">
-        <v>40912</v>
+        <v>5173</v>
       </c>
       <c r="I6" s="0">
-        <v>397.6202758430498</v>
+        <v>241.5388649600018</v>
       </c>
       <c r="J6" s="0">
-        <v>124172.92913596133</v>
+        <v>45820.93253968253</v>
       </c>
       <c r="K6" s="0">
-        <v>223.89482889507869</v>
+        <v>86.658520992747881</v>
       </c>
       <c r="L6" s="0">
-        <v>2315.4532298326326</v>
+        <v>836.83113652137888</v>
       </c>
       <c r="M6" s="0">
-        <v>0.29104809686610877</v>
+        <v>0.82223910165389114</v>
       </c>
       <c r="N6" s="0">
-        <v>0.32089915673378594</v>
+        <v>0.23061074774618051</v>
       </c>
       <c r="O6" s="0">
-        <v>467.17139225655063</v>
+        <v>355.40692054900444</v>
       </c>
       <c r="P6" s="0">
-        <v>611.65073816973018</v>
+        <v>847.68374250918225</v>
       </c>
       <c r="Q6" s="0">
-        <v>68.097358398433158</v>
+        <v>113.09523809523806</v>
       </c>
       <c r="R6" s="0">
-        <v>68.097358398433158</v>
+        <v>113.09523809523806</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="B7" s="0">
         <v>6</v>
@@ -752,334 +1160,334 @@
         <v>7</v>
       </c>
       <c r="D7" s="0">
-        <v>1.7421602787456445</v>
+        <v>5.1413881748071972</v>
       </c>
       <c r="E7" s="0">
-        <v>292.6829268292683</v>
+        <v>1845.7583547557838</v>
       </c>
       <c r="F7" s="0">
-        <v>240.41811846689893</v>
+        <v>1033.4190231362466</v>
       </c>
       <c r="G7" s="0">
-        <v>1.2173913043478262</v>
+        <v>1.7860696517412937</v>
       </c>
       <c r="H7" s="0">
-        <v>14466</v>
+        <v>27211</v>
       </c>
       <c r="I7" s="0">
-        <v>236.43806546677189</v>
+        <v>956.99067240965496</v>
       </c>
       <c r="J7" s="0">
-        <v>43906.081171314443</v>
+        <v>719292.10089809063</v>
       </c>
       <c r="K7" s="0">
-        <v>85.559508818186472</v>
+        <v>504.52524330987865</v>
       </c>
       <c r="L7" s="0">
-        <v>877.24864205997801</v>
+        <v>6090.0308761318656</v>
       </c>
       <c r="M7" s="0">
-        <v>0.71695043196430486</v>
+        <v>0.24371158044511848</v>
       </c>
       <c r="N7" s="0">
-        <v>0.4108365132097509</v>
+        <v>0.22279593923091837</v>
       </c>
       <c r="O7" s="0">
-        <v>727.78729434536149</v>
+        <v>591.30292896255196</v>
       </c>
       <c r="P7" s="0">
-        <v>570.78183326420572</v>
+        <v>186.19561941861747</v>
       </c>
       <c r="Q7" s="0">
-        <v>63.216937105175752</v>
+        <v>133.74321383139008</v>
       </c>
       <c r="R7" s="0">
-        <v>63.216937105175752</v>
+        <v>133.74321383139008</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="B8" s="0">
         <v>7</v>
       </c>
       <c r="C8" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="0">
         <v>5.1413881748071972</v>
       </c>
       <c r="E8" s="0">
-        <v>1840.6169665809766</v>
+        <v>488.43187660668372</v>
       </c>
       <c r="F8" s="0">
-        <v>1023.1362467866322</v>
+        <v>390.74550128534702</v>
       </c>
       <c r="G8" s="0">
-        <v>1.7989949748743719</v>
+        <v>1.2499999999999998</v>
       </c>
       <c r="H8" s="0">
-        <v>26748</v>
+        <v>4328</v>
       </c>
       <c r="I8" s="0">
-        <v>948.81405838110481</v>
+        <v>381.66213879171556</v>
       </c>
       <c r="J8" s="0">
-        <v>707053.21799353673</v>
+        <v>114405.79959159663</v>
       </c>
       <c r="K8" s="0">
-        <v>499.50962136412301</v>
+        <v>147.56677679028485</v>
       </c>
       <c r="L8" s="0">
-        <v>6078.4226914382916</v>
+        <v>1385.3406855761345</v>
       </c>
       <c r="M8" s="0">
-        <v>0.2404806694639221</v>
+        <v>0.7491085030035719</v>
       </c>
       <c r="N8" s="0">
-        <v>0.2240488268326126</v>
+        <v>0.24062748482775781</v>
       </c>
       <c r="O8" s="0">
-        <v>591.9328547928817</v>
+        <v>491.10951940850276</v>
       </c>
       <c r="P8" s="0">
-        <v>185.95367877972186</v>
+        <v>270.79551756007396</v>
       </c>
       <c r="Q8" s="0">
-        <v>56.292361396200924</v>
+        <v>143.95886889460149</v>
       </c>
       <c r="R8" s="0">
-        <v>56.292361396200924</v>
+        <v>143.95886889460149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="B9" s="0">
         <v>8</v>
       </c>
       <c r="C9" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="0">
         <v>5.1413881748071972</v>
       </c>
       <c r="E9" s="0">
-        <v>478.14910025706934</v>
+        <v>210.79691516709508</v>
       </c>
       <c r="F9" s="0">
-        <v>385.6041131105398</v>
+        <v>205.65552699228789</v>
       </c>
       <c r="G9" s="0">
-        <v>1.24</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="H9" s="0">
-        <v>4191</v>
+        <v>1300</v>
       </c>
       <c r="I9" s="0">
-        <v>375.57293155377391</v>
+        <v>209.17372468525545</v>
       </c>
       <c r="J9" s="0">
-        <v>110784.35907772215</v>
+        <v>34364.034073261464</v>
       </c>
       <c r="K9" s="0">
-        <v>144.55812495849943</v>
+        <v>74.444545684794235</v>
       </c>
       <c r="L9" s="0">
-        <v>1383.033419023136</v>
+        <v>693.07113609104886</v>
       </c>
       <c r="M9" s="0">
-        <v>0.72781828947608929</v>
+        <v>0.89899728499625786</v>
       </c>
       <c r="N9" s="0">
-        <v>0.24957178881767028</v>
+        <v>0.26826381968864055</v>
       </c>
       <c r="O9" s="0">
-        <v>491.34502505368647</v>
+        <v>702.6792307692308</v>
       </c>
       <c r="P9" s="0">
-        <v>270.51419708900022</v>
+        <v>347.16846153846154</v>
       </c>
       <c r="Q9" s="0">
-        <v>31.371641791044784</v>
+        <v>185.08997429305916</v>
       </c>
       <c r="R9" s="0">
-        <v>31.371641791044784</v>
+        <v>185.08997429305916</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="B10" s="0">
         <v>9</v>
       </c>
       <c r="C10" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="0">
         <v>5.1413881748071972</v>
       </c>
       <c r="E10" s="0">
-        <v>210.79691516709508</v>
+        <v>164.52442159383031</v>
       </c>
       <c r="F10" s="0">
-        <v>195.37275064267351</v>
+        <v>159.38303341902312</v>
       </c>
       <c r="G10" s="0">
-        <v>1.0789473684210524</v>
+        <v>1.032258064516129</v>
       </c>
       <c r="H10" s="0">
-        <v>1207</v>
+        <v>767</v>
       </c>
       <c r="I10" s="0">
-        <v>201.55291736555208</v>
+        <v>160.66938659319891</v>
       </c>
       <c r="J10" s="0">
-        <v>31905.683943405071</v>
+        <v>20274.780103224264</v>
       </c>
       <c r="K10" s="0">
-        <v>72.278632885341509</v>
+        <v>57.639193958940332</v>
       </c>
       <c r="L10" s="0">
-        <v>760.92544987146516</v>
+        <v>537.16832347787249</v>
       </c>
       <c r="M10" s="0">
-        <v>0.69245842455859763</v>
+        <v>0.88296853458393065</v>
       </c>
       <c r="N10" s="0">
-        <v>0.29414322053215775</v>
+        <v>0.27663278205496844</v>
       </c>
       <c r="O10" s="0">
-        <v>703.23777961888982</v>
+        <v>740.75097783572357</v>
       </c>
       <c r="P10" s="0">
-        <v>347.17729908864953</v>
+        <v>410.59322033898303</v>
       </c>
       <c r="Q10" s="0">
-        <v>21.253399999999999</v>
+        <v>164.52442159383031</v>
       </c>
       <c r="R10" s="0">
-        <v>21.253399999999999</v>
+        <v>164.52442159383031</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="B11" s="0">
         <v>10</v>
       </c>
       <c r="C11" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="0">
         <v>5.1413881748071972</v>
       </c>
       <c r="E11" s="0">
-        <v>149.10025706940871</v>
+        <v>102.82776349614394</v>
       </c>
       <c r="F11" s="0">
-        <v>149.10025706940871</v>
+        <v>66.838046272493557</v>
       </c>
       <c r="G11" s="0">
-        <v>1</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="H11" s="0">
-        <v>585</v>
+        <v>146</v>
       </c>
       <c r="I11" s="0">
-        <v>140.31800025091709</v>
+        <v>70.099009520110172</v>
       </c>
       <c r="J11" s="0">
-        <v>15463.815332967661</v>
+        <v>3859.345365150903</v>
       </c>
       <c r="K11" s="0">
-        <v>53.952997217994564</v>
+        <v>28.940742840738142</v>
       </c>
       <c r="L11" s="0">
-        <v>771.2082262210796</v>
+        <v>324.16049750410957</v>
       </c>
       <c r="M11" s="0">
-        <v>0.32672563597333848</v>
+        <v>0.46153360486072759</v>
       </c>
       <c r="N11" s="0">
-        <v>0.36683455077104837</v>
+        <v>0.20151376891939971</v>
       </c>
       <c r="O11" s="0">
-        <v>740.62222222222226</v>
+        <v>594.52054794520552</v>
       </c>
       <c r="P11" s="0">
-        <v>410.65982905982906</v>
+        <v>403.74657534246575</v>
       </c>
       <c r="Q11" s="0">
-        <v>21.291597633136099</v>
+        <v>339.33161953727506</v>
       </c>
       <c r="R11" s="0">
-        <v>21.291597633136099</v>
+        <v>339.33161953727506</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="B12" s="0">
         <v>11</v>
       </c>
       <c r="C12" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="0">
         <v>5.1413881748071972</v>
       </c>
       <c r="E12" s="0">
-        <v>102.82776349614394</v>
+        <v>442.15938303341898</v>
       </c>
       <c r="F12" s="0">
-        <v>71.979434447300761</v>
+        <v>349.61439588688938</v>
       </c>
       <c r="G12" s="0">
-        <v>1.4285714285714286</v>
+        <v>1.2647058823529413</v>
       </c>
       <c r="H12" s="0">
-        <v>167</v>
+        <v>3368</v>
       </c>
       <c r="I12" s="0">
-        <v>74.971066549720518</v>
+        <v>336.68323783232108</v>
       </c>
       <c r="J12" s="0">
-        <v>4414.4566847958959</v>
+        <v>89029.282122111239</v>
       </c>
       <c r="K12" s="0">
-        <v>31.89085865168342</v>
+        <v>130.7327206961865</v>
       </c>
       <c r="L12" s="0">
-        <v>346.93118068447046</v>
+        <v>1557.8406169665807</v>
       </c>
       <c r="M12" s="0">
-        <v>0.46089336449320767</v>
+        <v>0.46099550402642103</v>
       </c>
       <c r="N12" s="0">
-        <v>0.18750341358538916</v>
+        <v>0.24365703466564545</v>
       </c>
       <c r="O12" s="0">
-        <v>599.11976047904193</v>
+        <v>419.90706650831356</v>
       </c>
       <c r="P12" s="0">
-        <v>406.04790419161679</v>
+        <v>780.13004750593825</v>
       </c>
       <c r="Q12" s="0">
-        <v>19.640000000000011</v>
+        <v>152.8033916837781</v>
       </c>
       <c r="R12" s="0">
-        <v>19.640000000000011</v>
+        <v>152.8033916837781</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="B13" s="0">
         <v>12</v>
@@ -1088,54 +1496,54 @@
         <v>9</v>
       </c>
       <c r="D13" s="0">
-        <v>5.1413881748071972</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="E13" s="0">
-        <v>1223.6503856041129</v>
+        <v>166.15384615384616</v>
       </c>
       <c r="F13" s="0">
-        <v>786.6323907455012</v>
+        <v>101.53846153846155</v>
       </c>
       <c r="G13" s="0">
-        <v>1.5555555555555554</v>
+        <v>1.6363636363636362</v>
       </c>
       <c r="H13" s="0">
-        <v>16042</v>
+        <v>22434</v>
       </c>
       <c r="I13" s="0">
-        <v>734.79249125041792</v>
+        <v>104.00519959070984</v>
       </c>
       <c r="J13" s="0">
-        <v>424052.18046404648</v>
+        <v>8495.7159763313612</v>
       </c>
       <c r="K13" s="0">
-        <v>360.87823211436643</v>
+        <v>47.071216314617025</v>
       </c>
       <c r="L13" s="0">
-        <v>3891.1506024682526</v>
+        <v>570.320325756118</v>
       </c>
       <c r="M13" s="0">
-        <v>0.35194361023870713</v>
+        <v>0.3282253721390917</v>
       </c>
       <c r="N13" s="0">
-        <v>0.31902153497188196</v>
+        <v>0.18924693747511617</v>
       </c>
       <c r="O13" s="0">
-        <v>778.023874828575</v>
+        <v>357.00615137737361</v>
       </c>
       <c r="P13" s="0">
-        <v>510.61713003366162</v>
+        <v>131.67455647677633</v>
       </c>
       <c r="Q13" s="0">
-        <v>66.765114154923239</v>
+        <v>19.7386706644401</v>
       </c>
       <c r="R13" s="0">
-        <v>66.765114154923239</v>
+        <v>19.7386706644401</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="B14" s="0">
         <v>13</v>
@@ -1144,390 +1552,378 @@
         <v>9</v>
       </c>
       <c r="D14" s="0">
-        <v>5.1413881748071972</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="E14" s="0">
-        <v>365.03856041131098</v>
+        <v>65.846153846153854</v>
       </c>
       <c r="F14" s="0">
-        <v>262.21079691516707</v>
+        <v>33.846153846153847</v>
       </c>
       <c r="G14" s="0">
-        <v>1.392156862745098</v>
+        <v>1.9454545454545455</v>
       </c>
       <c r="H14" s="0">
-        <v>2861</v>
+        <v>3836</v>
       </c>
       <c r="I14" s="0">
-        <v>310.30900771450558</v>
+        <v>43.007182638771212</v>
       </c>
       <c r="J14" s="0">
-        <v>75627.308833539268</v>
+        <v>1452.6863905325445</v>
       </c>
       <c r="K14" s="0">
-        <v>114.44417698865944</v>
+        <v>19.345393237772008</v>
       </c>
       <c r="L14" s="0">
-        <v>1213.3676092544986</v>
+        <v>178.5585365888173</v>
       </c>
       <c r="M14" s="0">
-        <v>0.64551110183283522</v>
+        <v>0.57255933004597548</v>
       </c>
       <c r="N14" s="0">
-        <v>0.26234156011343412</v>
+        <v>0.30840694662756046</v>
       </c>
       <c r="O14" s="0">
-        <v>422.5159035302342</v>
+        <v>39.894681960375394</v>
       </c>
       <c r="P14" s="0">
-        <v>782.90527787486894</v>
+        <v>116.51459854014598</v>
       </c>
       <c r="Q14" s="0">
-        <v>34.934117647058827</v>
+        <v>17.403964551368659</v>
       </c>
       <c r="R14" s="0">
-        <v>34.934117647058827</v>
+        <v>17.403964551368659</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="B15" s="0">
         <v>14</v>
       </c>
       <c r="C15" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="0">
-        <v>0.3058103975535168</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="E15" s="0">
-        <v>260.24464831804278</v>
+        <v>94.769230769230774</v>
       </c>
       <c r="F15" s="0">
-        <v>257.1865443425076</v>
+        <v>86.769230769230774</v>
       </c>
       <c r="G15" s="0">
-        <v>1.0118906064209274</v>
+        <v>1.0921985815602837</v>
       </c>
       <c r="H15" s="0">
-        <v>440601</v>
+        <v>13058</v>
       </c>
       <c r="I15" s="0">
-        <v>229.04986804052939</v>
+        <v>79.348738404892131</v>
       </c>
       <c r="J15" s="0">
-        <v>41205.005190359952</v>
+        <v>4945.0414201183439</v>
       </c>
       <c r="K15" s="0">
-        <v>84.44813148288668</v>
+        <v>30.219095200034843</v>
       </c>
       <c r="L15" s="0">
-        <v>1199.0825688073394</v>
+        <v>367.55438988599656</v>
       </c>
       <c r="M15" s="0">
-        <v>0.36013195442020624</v>
+        <v>0.45997747981049142</v>
       </c>
       <c r="N15" s="0">
-        <v>0.044233301795570841</v>
+        <v>0.2298926626583212</v>
       </c>
       <c r="O15" s="0">
-        <v>505.59540945208931</v>
+        <v>744.93199571144123</v>
       </c>
       <c r="P15" s="0">
-        <v>496.95660472854127</v>
+        <v>311.30494715882986</v>
       </c>
       <c r="Q15" s="0">
-        <v>20.244139238436766</v>
+        <v>23.497949628475787</v>
       </c>
       <c r="R15" s="0">
-        <v>20.244139238436766</v>
+        <v>23.497949628475787</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c r="B16" s="0">
         <v>15</v>
       </c>
       <c r="C16" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="0">
         <v>0.61538461538461542</v>
       </c>
       <c r="E16" s="0">
-        <v>165.53846153846155</v>
+        <v>268.30769230769232</v>
       </c>
       <c r="F16" s="0">
-        <v>102.15384615384616</v>
+        <v>238.76923076923077</v>
       </c>
       <c r="G16" s="0">
-        <v>1.6204819277108433</v>
+        <v>1.1237113402061856</v>
       </c>
       <c r="H16" s="0">
-        <v>22105</v>
+        <v>78473</v>
       </c>
       <c r="I16" s="0">
-        <v>103.23975223805951</v>
+        <v>194.51890759798479</v>
       </c>
       <c r="J16" s="0">
-        <v>8371.1242603550309</v>
+        <v>29717.585798816574</v>
       </c>
       <c r="K16" s="0">
-        <v>47.008173261278536</v>
+        <v>78.653906557188691</v>
       </c>
       <c r="L16" s="0">
-        <v>572.0646977778124</v>
+        <v>1443.0769230769231</v>
       </c>
       <c r="M16" s="0">
-        <v>0.32144254376030701</v>
+        <v>0.17932648082534769</v>
       </c>
       <c r="N16" s="0">
-        <v>0.19554143806235649</v>
+        <v>0.13687697863422646</v>
       </c>
       <c r="O16" s="0">
-        <v>358.23284324813392</v>
+        <v>255.24658162680157</v>
       </c>
       <c r="P16" s="0">
-        <v>130.80628817009728</v>
+        <v>516.01376269544937</v>
       </c>
       <c r="Q16" s="0">
-        <v>24.237415886106806</v>
+        <v>18.745773795715976</v>
       </c>
       <c r="R16" s="0">
-        <v>24.237415886106806</v>
+        <v>18.745773795715976</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c r="B17" s="0">
         <v>16</v>
       </c>
       <c r="C17" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" s="0">
         <v>0.61538461538461542</v>
       </c>
       <c r="E17" s="0">
-        <v>16.615384615384617</v>
+        <v>41.846153846153847</v>
       </c>
       <c r="F17" s="0">
-        <v>14.76923076923077</v>
+        <v>23.384615384615387</v>
       </c>
       <c r="G17" s="0">
-        <v>1.125</v>
+        <v>1.7894736842105261</v>
       </c>
       <c r="H17" s="0">
-        <v>501</v>
+        <v>1919</v>
       </c>
       <c r="I17" s="0">
-        <v>15.542488579913298</v>
+        <v>30.418597154006207</v>
       </c>
       <c r="J17" s="0">
-        <v>189.72781065088759</v>
+        <v>726.72189349112432</v>
       </c>
       <c r="K17" s="0">
-        <v>5.5306659787101511</v>
+        <v>12.322448646039302</v>
       </c>
       <c r="L17" s="0">
-        <v>51.206242372367825</v>
+        <v>112.15898172341493</v>
       </c>
       <c r="M17" s="0">
-        <v>0.90927456800127504</v>
+        <v>0.72595548787385478</v>
       </c>
       <c r="N17" s="0">
-        <v>0.42200729433426687</v>
+        <v>0.012289935870289176</v>
       </c>
       <c r="O17" s="0">
-        <v>37.702594810379239</v>
+        <v>562.15268368942156</v>
       </c>
       <c r="P17" s="0">
-        <v>72.365269461077844</v>
-      </c>
-      <c r="Q17" s="0">
-        <v>13.174929489031319</v>
-      </c>
-      <c r="R17" s="0">
-        <v>13.174929489031319</v>
-      </c>
+        <v>436.94632621156853</v>
+      </c>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c r="B18" s="0">
         <v>17</v>
       </c>
       <c r="C18" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" s="0">
         <v>0.61538461538461542</v>
       </c>
       <c r="E18" s="0">
-        <v>38.153846153846153</v>
+        <v>192.61538461538461</v>
       </c>
       <c r="F18" s="0">
-        <v>30.76923076923077</v>
+        <v>139.07692307692309</v>
       </c>
       <c r="G18" s="0">
-        <v>1.24</v>
+        <v>1.3849557522123892</v>
       </c>
       <c r="H18" s="0">
-        <v>2209</v>
+        <v>34337</v>
       </c>
       <c r="I18" s="0">
-        <v>32.636197448300983</v>
+        <v>128.67164944874733</v>
       </c>
       <c r="J18" s="0">
-        <v>836.54437869822493</v>
+        <v>13003.360946745564</v>
       </c>
       <c r="K18" s="0">
-        <v>12.41139118385958</v>
+        <v>62.305158679631575</v>
       </c>
       <c r="L18" s="0">
-        <v>117.68782869132875</v>
+        <v>841.33266314785612</v>
       </c>
       <c r="M18" s="0">
-        <v>0.75898946648370613</v>
+        <v>0.23085005484037244</v>
       </c>
       <c r="N18" s="0">
-        <v>0.41332303764835487</v>
+        <v>0.22843555643774782</v>
       </c>
       <c r="O18" s="0">
-        <v>43.808510638297875</v>
+        <v>701.55561056586191</v>
       </c>
       <c r="P18" s="0">
-        <v>134.79628791308284</v>
+        <v>926.54168972245679</v>
       </c>
       <c r="Q18" s="0">
-        <v>17.418859600654514</v>
+        <v>18.26402224393242</v>
       </c>
       <c r="R18" s="0">
-        <v>17.418859600654514</v>
+        <v>18.26402224393242</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c r="B19" s="0">
         <v>18</v>
       </c>
       <c r="C19" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" s="0">
         <v>0.61538461538461542</v>
       </c>
       <c r="E19" s="0">
-        <v>9.2307692307692317</v>
+        <v>7.384615384615385</v>
       </c>
       <c r="F19" s="0">
-        <v>8.6153846153846168</v>
+        <v>4.3076923076923084</v>
       </c>
       <c r="G19" s="0">
-        <v>1.0714285714285714</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="H19" s="0">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="I19" s="0">
-        <v>8.6728930953180647</v>
+        <v>6.4019334742893532</v>
       </c>
       <c r="J19" s="0">
-        <v>59.076923076923087</v>
+        <v>32.189349112426036</v>
       </c>
       <c r="K19" s="0">
-        <v>3.2627233004646898</v>
+        <v>2.3824395269444958</v>
       </c>
       <c r="L19" s="0">
-        <v>30.387085194543484</v>
+        <v>22.016111140724739</v>
       </c>
       <c r="M19" s="0">
-        <v>0.80398814464018842</v>
+        <v>0.83452786270159096</v>
       </c>
       <c r="N19" s="0">
-        <v>0.41712088257139229</v>
+        <v>0.10866014121106726</v>
       </c>
       <c r="O19" s="0">
-        <v>824.60897435897436</v>
+        <v>869.4588235294118</v>
       </c>
       <c r="P19" s="0">
-        <v>231.42307692307693</v>
-      </c>
-      <c r="Q19" s="0">
-        <v>7.568738713687873</v>
-      </c>
-      <c r="R19" s="0">
-        <v>7.568738713687873</v>
-      </c>
+        <v>829.96470588235297</v>
+      </c>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c r="B20" s="0">
         <v>19</v>
       </c>
       <c r="C20" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="0">
         <v>0.61538461538461542</v>
       </c>
       <c r="E20" s="0">
-        <v>99.07692307692308</v>
+        <v>20.923076923076923</v>
       </c>
       <c r="F20" s="0">
-        <v>97.230769230769241</v>
+        <v>17.230769230769234</v>
       </c>
       <c r="G20" s="0">
-        <v>1.0189873417721518</v>
+        <v>1.2142857142857142</v>
       </c>
       <c r="H20" s="0">
-        <v>15053</v>
+        <v>597</v>
       </c>
       <c r="I20" s="0">
-        <v>85.194826893869092</v>
+        <v>16.966367100101046</v>
       </c>
       <c r="J20" s="0">
-        <v>5700.544378698226</v>
+        <v>226.08284023668642</v>
       </c>
       <c r="K20" s="0">
-        <v>31.866821342586221</v>
+        <v>6.7802263250950334</v>
       </c>
       <c r="L20" s="0">
-        <v>388.84840878654683</v>
+        <v>61.311591597987615</v>
       </c>
       <c r="M20" s="0">
-        <v>0.47376780281185588</v>
+        <v>0.75577458612587878</v>
       </c>
       <c r="N20" s="0">
-        <v>0.22904464284261358</v>
+        <v>0.085550117906188161</v>
       </c>
       <c r="O20" s="0">
-        <v>752.51743838437517</v>
+        <v>498.28475711892798</v>
       </c>
       <c r="P20" s="0">
-        <v>307.05613498970303</v>
-      </c>
-      <c r="Q20" s="0">
-        <v>21.774546544601801</v>
-      </c>
-      <c r="R20" s="0">
-        <v>21.774546544601801</v>
-      </c>
+        <v>851.40871021775547</v>
+      </c>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="B21" s="0">
         <v>20</v>
@@ -1536,54 +1932,54 @@
         <v>11</v>
       </c>
       <c r="D21" s="0">
-        <v>0.61538461538461542</v>
+        <v>1.2195121951219512</v>
       </c>
       <c r="E21" s="0">
-        <v>441.84615384615387</v>
+        <v>48.780487804878049</v>
       </c>
       <c r="F21" s="0">
-        <v>345.84615384615387</v>
+        <v>42.68292682926829</v>
       </c>
       <c r="G21" s="0">
-        <v>1.2775800711743772</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="H21" s="0">
-        <v>174530</v>
+        <v>740</v>
       </c>
       <c r="I21" s="0">
-        <v>290.09265868757723</v>
+        <v>37.43320966810019</v>
       </c>
       <c r="J21" s="0">
-        <v>66094.201183431956</v>
+        <v>1100.5353955978585</v>
       </c>
       <c r="K21" s="0">
-        <v>131.99472551966809</v>
+        <v>16.409604135541766</v>
       </c>
       <c r="L21" s="0">
-        <v>2719.3846153846157</v>
+        <v>143.89202105319276</v>
       </c>
       <c r="M21" s="0">
-        <v>0.11231349697609989</v>
+        <v>0.66794461645557734</v>
       </c>
       <c r="N21" s="0">
-        <v>0.13872757295838223</v>
+        <v>0.27436270912811539</v>
       </c>
       <c r="O21" s="0">
-        <v>438.75739987394718</v>
+        <v>33.477027027027027</v>
       </c>
       <c r="P21" s="0">
-        <v>559.10733398269633</v>
+        <v>184.66756756756757</v>
       </c>
       <c r="Q21" s="0">
-        <v>20.508551709440873</v>
+        <v>26.718173536837366</v>
       </c>
       <c r="R21" s="0">
-        <v>20.508551709440873</v>
+        <v>26.718173536837366</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="B22" s="0">
         <v>21</v>
@@ -1592,54 +1988,54 @@
         <v>11</v>
       </c>
       <c r="D22" s="0">
-        <v>0.61538461538461542</v>
+        <v>1.2195121951219512</v>
       </c>
       <c r="E22" s="0">
-        <v>8</v>
+        <v>52.439024390243901</v>
       </c>
       <c r="F22" s="0">
-        <v>6.7692307692307701</v>
+        <v>47.560975609756099</v>
       </c>
       <c r="G22" s="0">
-        <v>1.1818181818181817</v>
+        <v>1.1025641025641024</v>
       </c>
       <c r="H22" s="0">
-        <v>124</v>
+        <v>1231</v>
       </c>
       <c r="I22" s="0">
-        <v>7.7323683868482682</v>
+        <v>48.280330391887638</v>
       </c>
       <c r="J22" s="0">
-        <v>46.95857988165681</v>
+        <v>1830.755502676978</v>
       </c>
       <c r="K22" s="0">
-        <v>2.8158119698276378</v>
+        <v>17.795822208811064</v>
       </c>
       <c r="L22" s="0">
-        <v>26.439223824915</v>
+        <v>169.92407959496043</v>
       </c>
       <c r="M22" s="0">
-        <v>0.84416514346899307</v>
+        <v>0.79676520446471166</v>
       </c>
       <c r="N22" s="0">
-        <v>0.29282026671421896</v>
+        <v>0.10690546479192231</v>
       </c>
       <c r="O22" s="0">
-        <v>211.59677419354838</v>
+        <v>79.866774979691314</v>
       </c>
       <c r="P22" s="0">
-        <v>414.92741935483872</v>
+        <v>364.39805036555646</v>
       </c>
       <c r="Q22" s="0">
-        <v>4.6336378129275495</v>
+        <v>26.829268292682926</v>
       </c>
       <c r="R22" s="0">
-        <v>4.6336378129275495</v>
+        <v>26.829268292682926</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="B23" s="0">
         <v>22</v>
@@ -1648,502 +2044,486 @@
         <v>11</v>
       </c>
       <c r="D23" s="0">
-        <v>0.61538461538461542</v>
+        <v>1.2195121951219512</v>
       </c>
       <c r="E23" s="0">
-        <v>121.23076923076924</v>
+        <v>17.073170731707318</v>
       </c>
       <c r="F23" s="0">
-        <v>75.692307692307693</v>
+        <v>6.0975609756097562</v>
       </c>
       <c r="G23" s="0">
-        <v>1.6016260162601628</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="H23" s="0">
-        <v>11007</v>
+        <v>64</v>
       </c>
       <c r="I23" s="0">
-        <v>72.85111065946171</v>
+        <v>11.008577239956219</v>
       </c>
       <c r="J23" s="0">
-        <v>4168.3313609467459</v>
+        <v>95.181439619274244</v>
       </c>
       <c r="K23" s="0">
-        <v>34.646061565994422</v>
+        <v>4.7911557477700768</v>
       </c>
       <c r="L23" s="0">
-        <v>391.46726399012903</v>
+        <v>44.07866860487345</v>
       </c>
       <c r="M23" s="0">
-        <v>0.34180719381290903</v>
+        <v>0.61560933511805771</v>
       </c>
       <c r="N23" s="0">
-        <v>0.39300065105065324</v>
+        <v>0.26684985510000797</v>
       </c>
       <c r="O23" s="0">
-        <v>922.40328881620792</v>
+        <v>317.984375</v>
       </c>
       <c r="P23" s="0">
-        <v>668.09330426092481</v>
-      </c>
-      <c r="Q23" s="0">
-        <v>15.363525435634561</v>
-      </c>
-      <c r="R23" s="0">
-        <v>15.363525435634561</v>
-      </c>
+        <v>1015.953125</v>
+      </c>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="B24" s="0">
         <v>23</v>
       </c>
       <c r="C24" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="0">
-        <v>0.61538461538461542</v>
+        <v>1.2195121951219512</v>
       </c>
       <c r="E24" s="0">
-        <v>16</v>
+        <v>92.682926829268297</v>
       </c>
       <c r="F24" s="0">
-        <v>9.8461538461538467</v>
+        <v>51.219512195121951</v>
       </c>
       <c r="G24" s="0">
-        <v>1.625</v>
+        <v>1.8095238095238095</v>
       </c>
       <c r="H24" s="0">
-        <v>302</v>
+        <v>1507</v>
       </c>
       <c r="I24" s="0">
-        <v>12.067162621412081</v>
+        <v>53.419255757237799</v>
       </c>
       <c r="J24" s="0">
-        <v>114.36686390532546</v>
+        <v>2241.2254610350983</v>
       </c>
       <c r="K24" s="0">
-        <v>4.9157413137911234</v>
+        <v>26.981852445710146</v>
       </c>
       <c r="L24" s="0">
-        <v>45.707783667055452</v>
+        <v>239.71130203192885</v>
       </c>
       <c r="M24" s="0">
-        <v>0.68790703350546678</v>
+        <v>0.49013801753963271</v>
       </c>
       <c r="N24" s="0">
-        <v>0.084682215610332179</v>
+        <v>0.18538788973387807</v>
       </c>
       <c r="O24" s="0">
-        <v>449.89072847682121</v>
+        <v>81.254147312541477</v>
       </c>
       <c r="P24" s="0">
-        <v>810.16225165562912</v>
-      </c>
-      <c r="Q24" s="0">
-        <v>4.502599745116016</v>
-      </c>
-      <c r="R24" s="0">
-        <v>4.502599745116016</v>
-      </c>
+        <v>24.459854014598541</v>
+      </c>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="B25" s="0">
         <v>24</v>
       </c>
       <c r="C25" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="0">
-        <v>0.61538461538461542</v>
+        <v>1.2195121951219512</v>
       </c>
       <c r="E25" s="0">
-        <v>190.76923076923077</v>
+        <v>75.609756097560975</v>
       </c>
       <c r="F25" s="0">
-        <v>134.76923076923077</v>
+        <v>53.658536585365852</v>
       </c>
       <c r="G25" s="0">
-        <v>1.4155251141552512</v>
+        <v>1.4090909090909092</v>
       </c>
       <c r="H25" s="0">
-        <v>31156</v>
+        <v>1612</v>
       </c>
       <c r="I25" s="0">
-        <v>122.56671363843219</v>
+        <v>55.248911447295214</v>
       </c>
       <c r="J25" s="0">
-        <v>11798.721893491125</v>
+        <v>2397.3825104104699</v>
       </c>
       <c r="K25" s="0">
-        <v>61.318786325209608</v>
+        <v>24.057824076165726</v>
       </c>
       <c r="L25" s="0">
-        <v>859.32098796709965</v>
+        <v>219.10004668346059</v>
       </c>
       <c r="M25" s="0">
-        <v>0.20078626004374592</v>
+        <v>0.62757011833169418</v>
       </c>
       <c r="N25" s="0">
-        <v>0.26296626601498196</v>
+        <v>0.34473779392593501</v>
       </c>
       <c r="O25" s="0">
-        <v>698.54458210296571</v>
+        <v>614.88895781637711</v>
       </c>
       <c r="P25" s="0">
-        <v>924.41805751701122</v>
+        <v>23.628411910669975</v>
       </c>
       <c r="Q25" s="0">
-        <v>16.939345798624945</v>
+        <v>29.166489617320487</v>
       </c>
       <c r="R25" s="0">
-        <v>16.939345798624945</v>
+        <v>29.166489617320487</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="B26" s="0">
         <v>25</v>
       </c>
       <c r="C26" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="0">
-        <v>0.61538461538461542</v>
+        <v>1.2195121951219512</v>
       </c>
       <c r="E26" s="0">
-        <v>14.76923076923077</v>
+        <v>65.853658536585371</v>
       </c>
       <c r="F26" s="0">
-        <v>13.53846153846154</v>
+        <v>50</v>
       </c>
       <c r="G26" s="0">
-        <v>1.0909090909090908</v>
+        <v>1.3170731707317074</v>
       </c>
       <c r="H26" s="0">
-        <v>358</v>
+        <v>1705</v>
       </c>
       <c r="I26" s="0">
-        <v>13.138422007005031</v>
+        <v>56.820283804781695</v>
       </c>
       <c r="J26" s="0">
-        <v>135.57396449704143</v>
+        <v>2535.6930398572281</v>
       </c>
       <c r="K26" s="0">
-        <v>4.7793422394629683</v>
+        <v>21.16211028603788</v>
       </c>
       <c r="L26" s="0">
-        <v>45.887418089902425</v>
+        <v>191.74603187761585</v>
       </c>
       <c r="M26" s="0">
-        <v>0.80909387867344329</v>
+        <v>0.86667001738694172</v>
       </c>
       <c r="N26" s="0">
-        <v>0.11121080477647233</v>
+        <v>0.24517741604211804</v>
       </c>
       <c r="O26" s="0">
-        <v>491.96927374301674</v>
+        <v>552.83753665689153</v>
       </c>
       <c r="P26" s="0">
-        <v>846.58379888268155</v>
+        <v>81.670381231671556</v>
       </c>
       <c r="Q26" s="0">
-        <v>6.2555479763762447</v>
+        <v>29.268292682926827</v>
       </c>
       <c r="R26" s="0">
-        <v>6.2555479763762447</v>
+        <v>29.268292682926827</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="B27" s="0">
         <v>26</v>
       </c>
       <c r="C27" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="0">
         <v>1.2195121951219512</v>
       </c>
       <c r="E27" s="0">
-        <v>132.92682926829269</v>
+        <v>15.853658536585366</v>
       </c>
       <c r="F27" s="0">
-        <v>64.634146341463406</v>
+        <v>7.3170731707317067</v>
       </c>
       <c r="G27" s="0">
-        <v>2.0566037735849059</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="H27" s="0">
-        <v>3455</v>
+        <v>75</v>
       </c>
       <c r="I27" s="0">
-        <v>80.88448651763008</v>
+        <v>11.917134436656582</v>
       </c>
       <c r="J27" s="0">
-        <v>5138.3105294467578</v>
+        <v>111.540749553837</v>
       </c>
       <c r="K27" s="0">
-        <v>34.809517765454601</v>
+        <v>4.5760153754374917</v>
       </c>
       <c r="L27" s="0">
-        <v>360.78883701950321</v>
+        <v>43.609785945800148</v>
       </c>
       <c r="M27" s="0">
-        <v>0.49604837054520295</v>
+        <v>0.73701361827124623</v>
       </c>
       <c r="N27" s="0">
-        <v>0.21323018402761429</v>
+        <v>0.24483767525287708</v>
       </c>
       <c r="O27" s="0">
-        <v>459.87409551374822</v>
+        <v>8.7599999999999998</v>
       </c>
       <c r="P27" s="0">
-        <v>26.443704775687408</v>
-      </c>
-      <c r="Q27" s="0">
-        <v>17.346269774688405</v>
-      </c>
-      <c r="R27" s="0">
-        <v>17.346269774688405</v>
-      </c>
+        <v>93.319999999999993</v>
+      </c>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="B28" s="0">
         <v>27</v>
       </c>
       <c r="C28" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="0">
         <v>1.2195121951219512</v>
       </c>
       <c r="E28" s="0">
-        <v>169.51219512195121</v>
+        <v>210.97560975609755</v>
       </c>
       <c r="F28" s="0">
-        <v>140.2439024390244</v>
+        <v>190.2439024390244</v>
       </c>
       <c r="G28" s="0">
-        <v>1.2086956521739129</v>
+        <v>1.1089743589743588</v>
       </c>
       <c r="H28" s="0">
-        <v>8424</v>
+        <v>10993</v>
       </c>
       <c r="I28" s="0">
-        <v>126.29913786771789</v>
+        <v>144.2777367137212</v>
       </c>
       <c r="J28" s="0">
-        <v>12528.256989886971</v>
+        <v>16348.899464604403</v>
       </c>
       <c r="K28" s="0">
-        <v>51.037719671922879</v>
+        <v>69.006563731943743</v>
       </c>
       <c r="L28" s="0">
-        <v>589.14913034420886</v>
+        <v>684.24120433991163</v>
       </c>
       <c r="M28" s="0">
-        <v>0.4535759674216816</v>
+        <v>0.43881345987354703</v>
       </c>
       <c r="N28" s="0">
-        <v>0.14068488338651522</v>
+        <v>0.15377545556575345</v>
       </c>
       <c r="O28" s="0">
-        <v>596.50819088319088</v>
+        <v>139.3768761939416</v>
       </c>
       <c r="P28" s="0">
-        <v>72.198361823361822</v>
+        <v>297.37032657145454</v>
       </c>
       <c r="Q28" s="0">
-        <v>22.52171889413269</v>
+        <v>30.031644865483816</v>
       </c>
       <c r="R28" s="0">
-        <v>22.52171889413269</v>
+        <v>30.031644865483816</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="B29" s="0">
         <v>28</v>
       </c>
       <c r="C29" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="0">
         <v>1.2195121951219512</v>
       </c>
       <c r="E29" s="0">
-        <v>35.365853658536587</v>
+        <v>630.48780487804879</v>
       </c>
       <c r="F29" s="0">
-        <v>19.512195121951219</v>
+        <v>441.46341463414632</v>
       </c>
       <c r="G29" s="0">
-        <v>1.8125</v>
+        <v>1.4281767955801106</v>
       </c>
       <c r="H29" s="0">
-        <v>330</v>
+        <v>67307</v>
       </c>
       <c r="I29" s="0">
-        <v>24.997592083997279</v>
+        <v>357.00255457082045</v>
       </c>
       <c r="J29" s="0">
-        <v>490.77929803688284</v>
+        <v>100099.64306960143</v>
       </c>
       <c r="K29" s="0">
-        <v>10.37389432730378</v>
+        <v>188.14555098008353</v>
       </c>
       <c r="L29" s="0">
-        <v>95.925107199413489</v>
+        <v>2491.555422967298</v>
       </c>
       <c r="M29" s="0">
-        <v>0.6702418051791672</v>
+        <v>0.2026288541399501</v>
       </c>
       <c r="N29" s="0">
-        <v>0.30307918730772193</v>
+        <v>0.18890885111536157</v>
       </c>
       <c r="O29" s="0">
-        <v>867.12121212121212</v>
+        <v>457.11972008854946</v>
       </c>
       <c r="P29" s="0">
-        <v>54.38787878787879</v>
+        <v>681.52596312419212</v>
       </c>
       <c r="Q29" s="0">
-        <v>7.7321533923303871</v>
+        <v>26.51611046083223</v>
       </c>
       <c r="R29" s="0">
-        <v>7.7321533923303871</v>
+        <v>26.51611046083223</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="B30" s="0">
         <v>29</v>
       </c>
       <c r="C30" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="0">
         <v>1.2195121951219512</v>
       </c>
       <c r="E30" s="0">
-        <v>198.78048780487805</v>
+        <v>165.85365853658536</v>
       </c>
       <c r="F30" s="0">
-        <v>195.1219512195122</v>
+        <v>134.14634146341464</v>
       </c>
       <c r="G30" s="0">
-        <v>1.01875</v>
+        <v>1.2363636363636361</v>
       </c>
       <c r="H30" s="0">
-        <v>16510</v>
+        <v>8412</v>
       </c>
       <c r="I30" s="0">
-        <v>176.81322418205514</v>
+        <v>126.20914915813272</v>
       </c>
       <c r="J30" s="0">
-        <v>24553.837001784654</v>
+        <v>12510.410469958359</v>
       </c>
       <c r="K30" s="0">
-        <v>67.883806072670382</v>
+        <v>50.831208786515113</v>
       </c>
       <c r="L30" s="0">
-        <v>707.40817946958407</v>
+        <v>515.32668460894479</v>
       </c>
       <c r="M30" s="0">
-        <v>0.61657949592948436</v>
+        <v>0.59199243910311894</v>
       </c>
       <c r="N30" s="0">
-        <v>0.18245811564539088</v>
+        <v>0.27399547029481613</v>
       </c>
       <c r="O30" s="0">
-        <v>599.41811023622051</v>
+        <v>779.97919638611506</v>
       </c>
       <c r="P30" s="0">
-        <v>233.34021804966687</v>
+        <v>740.39788397527343</v>
       </c>
       <c r="Q30" s="0">
-        <v>45.202424541645527</v>
+        <v>28.475831982815116</v>
       </c>
       <c r="R30" s="0">
-        <v>45.202424541645527</v>
+        <v>28.475831982815116</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="B31" s="0">
         <v>30</v>
       </c>
       <c r="C31" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="0">
         <v>1.2195121951219512</v>
       </c>
       <c r="E31" s="0">
-        <v>48.780487804878049</v>
+        <v>25.609756097560975</v>
       </c>
       <c r="F31" s="0">
-        <v>42.68292682926829</v>
+        <v>8.536585365853659</v>
       </c>
       <c r="G31" s="0">
-        <v>1.142857142857143</v>
+        <v>3</v>
       </c>
       <c r="H31" s="0">
-        <v>744</v>
+        <v>130</v>
       </c>
       <c r="I31" s="0">
-        <v>37.5342441559565</v>
+        <v>15.689636542879724</v>
       </c>
       <c r="J31" s="0">
-        <v>1106.4842355740632</v>
+        <v>193.3372992266508</v>
       </c>
       <c r="K31" s="0">
-        <v>16.426183361897397</v>
+        <v>7.1181528846769844</v>
       </c>
       <c r="L31" s="0">
-        <v>144.60800978883321</v>
+        <v>63.121197385457982</v>
       </c>
       <c r="M31" s="0">
-        <v>0.6649215317931354</v>
+        <v>0.60978263717701664</v>
       </c>
       <c r="N31" s="0">
-        <v>0.295792352245353</v>
+        <v>0.38542251544131023</v>
       </c>
       <c r="O31" s="0">
-        <v>33.368279569892472</v>
+        <v>587.86923076923074</v>
       </c>
       <c r="P31" s="0">
-        <v>184.64516129032259</v>
-      </c>
-      <c r="Q31" s="0">
-        <v>18.110374418133979</v>
-      </c>
-      <c r="R31" s="0">
-        <v>18.110374418133979</v>
-      </c>
+        <v>1015.1461538461539</v>
+      </c>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="B32" s="0">
         <v>31</v>
@@ -2155,51 +2535,47 @@
         <v>1.2195121951219512</v>
       </c>
       <c r="E32" s="0">
-        <v>1002.4390243902438</v>
+        <v>20.73170731707317</v>
       </c>
       <c r="F32" s="0">
-        <v>692.68292682926824</v>
+        <v>6.0975609756097562</v>
       </c>
       <c r="G32" s="0">
-        <v>1.4471830985915493</v>
+        <v>3.3999999999999999</v>
       </c>
       <c r="H32" s="0">
-        <v>183086</v>
+        <v>89</v>
       </c>
       <c r="I32" s="0">
-        <v>588.80132029063884</v>
+        <v>12.981838746566844</v>
       </c>
       <c r="J32" s="0">
-        <v>272287.32897085068</v>
+        <v>132.36168947055324</v>
       </c>
       <c r="K32" s="0">
-        <v>285.82591815235401</v>
+        <v>5.7268425932379916</v>
       </c>
       <c r="L32" s="0">
-        <v>6831.707317073171</v>
+        <v>51.613554007136862</v>
       </c>
       <c r="M32" s="0">
-        <v>0.073312628640577165</v>
+        <v>0.62437375039298626</v>
       </c>
       <c r="N32" s="0">
-        <v>0.12537760468968245</v>
+        <v>-0.11820832795706242</v>
       </c>
       <c r="O32" s="0">
-        <v>286.96953344329989</v>
+        <v>188.43820224719101</v>
       </c>
       <c r="P32" s="0">
-        <v>553.50525436133842</v>
-      </c>
-      <c r="Q32" s="0">
-        <v>30.866448126801167</v>
-      </c>
-      <c r="R32" s="0">
-        <v>30.866448126801167</v>
-      </c>
+        <v>8.3707865168539328</v>
+      </c>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="B33" s="0">
         <v>32</v>
@@ -2211,51 +2587,51 @@
         <v>1.2195121951219512</v>
       </c>
       <c r="E33" s="0">
-        <v>221.95121951219511</v>
+        <v>917.07317073170725</v>
       </c>
       <c r="F33" s="0">
-        <v>204.8780487804878</v>
+        <v>725.60975609756099</v>
       </c>
       <c r="G33" s="0">
-        <v>1.0833333333333333</v>
+        <v>1.2638655462184873</v>
       </c>
       <c r="H33" s="0">
-        <v>10587</v>
+        <v>164208</v>
       </c>
       <c r="I33" s="0">
-        <v>141.58839653544649</v>
+        <v>557.62002648305827</v>
       </c>
       <c r="J33" s="0">
-        <v>15745.092207019632</v>
+        <v>244211.7787031529</v>
       </c>
       <c r="K33" s="0">
-        <v>65.858069643549314</v>
+        <v>291.24234133682836</v>
       </c>
       <c r="L33" s="0">
-        <v>798.49438627684765</v>
+        <v>5483.7145831645457</v>
       </c>
       <c r="M33" s="0">
-        <v>0.31032112274652629</v>
+        <v>0.10205323729397531</v>
       </c>
       <c r="N33" s="0">
-        <v>0.25507490454177395</v>
+        <v>0.083110058605835035</v>
       </c>
       <c r="O33" s="0">
-        <v>834.02106356852744</v>
+        <v>248.69752387216212</v>
       </c>
       <c r="P33" s="0">
-        <v>345.29914045527534</v>
+        <v>349.26655826756308</v>
       </c>
       <c r="Q33" s="0">
-        <v>16.272475996508575</v>
+        <v>28.159317737202169</v>
       </c>
       <c r="R33" s="0">
-        <v>16.272475996508575</v>
+        <v>28.159317737202169</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="B34" s="0">
         <v>33</v>
@@ -2267,51 +2643,51 @@
         <v>1.2195121951219512</v>
       </c>
       <c r="E34" s="0">
-        <v>34.146341463414636</v>
+        <v>417.07317073170731</v>
       </c>
       <c r="F34" s="0">
-        <v>31.707317073170731</v>
+        <v>390.2439024390244</v>
       </c>
       <c r="G34" s="0">
-        <v>1.0769230769230771</v>
+        <v>1.0687499999999999</v>
       </c>
       <c r="H34" s="0">
-        <v>445</v>
+        <v>49780</v>
       </c>
       <c r="I34" s="0">
-        <v>29.028273910264129</v>
+        <v>307.02140378302431</v>
       </c>
       <c r="J34" s="0">
-        <v>661.80844735276628</v>
+        <v>74033.313503866753</v>
       </c>
       <c r="K34" s="0">
-        <v>11.85391793311577</v>
+        <v>124.19119453551417</v>
       </c>
       <c r="L34" s="0">
-        <v>129.04956635472828</v>
+        <v>1876.8292682926829</v>
       </c>
       <c r="M34" s="0">
-        <v>0.4993776153857753</v>
+        <v>0.26411162458884668</v>
       </c>
       <c r="N34" s="0">
-        <v>0.40090463864425735</v>
+        <v>0.13001902211737595</v>
       </c>
       <c r="O34" s="0">
-        <v>1006.4179775280899</v>
+        <v>730.38991562876652</v>
       </c>
       <c r="P34" s="0">
-        <v>280.35955056179773</v>
+        <v>157.63742466854157</v>
       </c>
       <c r="Q34" s="0">
-        <v>7.8618518518518563</v>
+        <v>29.628004761027004</v>
       </c>
       <c r="R34" s="0">
-        <v>7.8618518518518563</v>
+        <v>29.628004761027004</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="B35" s="0">
         <v>34</v>
@@ -2323,51 +2699,47 @@
         <v>1.2195121951219512</v>
       </c>
       <c r="E35" s="0">
-        <v>267.07317073170731</v>
+        <v>41.463414634146339</v>
       </c>
       <c r="F35" s="0">
-        <v>154.8780487804878</v>
+        <v>18.292682926829269</v>
       </c>
       <c r="G35" s="0">
-        <v>1.7244094488188977</v>
+        <v>2.2666666666666666</v>
       </c>
       <c r="H35" s="0">
-        <v>13901</v>
+        <v>344</v>
       </c>
       <c r="I35" s="0">
-        <v>162.24235013558754</v>
+        <v>25.522336375387763</v>
       </c>
       <c r="J35" s="0">
-        <v>20673.706127305177</v>
+        <v>511.60023795359905</v>
       </c>
       <c r="K35" s="0">
-        <v>75.256014716259301</v>
+        <v>11.522456769043197</v>
       </c>
       <c r="L35" s="0">
-        <v>845.23052940298908</v>
+        <v>102.12422418495187</v>
       </c>
       <c r="M35" s="0">
-        <v>0.36364519394361344</v>
+        <v>0.61642899888989144</v>
       </c>
       <c r="N35" s="0">
-        <v>0.18336189785318055</v>
+        <v>0.22692659660471878</v>
       </c>
       <c r="O35" s="0">
-        <v>619.82634342853032</v>
+        <v>770.20058139534888</v>
       </c>
       <c r="P35" s="0">
-        <v>459.9873390403568</v>
-      </c>
-      <c r="Q35" s="0">
-        <v>49.127027170080311</v>
-      </c>
-      <c r="R35" s="0">
-        <v>49.127027170080311</v>
-      </c>
+        <v>12.436046511627907</v>
+      </c>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="B36" s="0">
         <v>35</v>
@@ -2379,51 +2751,47 @@
         <v>1.2195121951219512</v>
       </c>
       <c r="E36" s="0">
-        <v>52.439024390243901</v>
+        <v>28.048780487804876</v>
       </c>
       <c r="F36" s="0">
-        <v>47.560975609756099</v>
+        <v>14.634146341463413</v>
       </c>
       <c r="G36" s="0">
-        <v>1.1025641025641024</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="H36" s="0">
-        <v>695</v>
+        <v>211</v>
       </c>
       <c r="I36" s="0">
-        <v>36.277187461918018</v>
+        <v>19.988602639592415</v>
       </c>
       <c r="J36" s="0">
-        <v>1033.6109458655562</v>
+        <v>313.80130874479477</v>
       </c>
       <c r="K36" s="0">
-        <v>18.115404634282079</v>
+        <v>8.1063202216367731</v>
       </c>
       <c r="L36" s="0">
-        <v>173.99590737390378</v>
+        <v>74.921124884518605</v>
       </c>
       <c r="M36" s="0">
-        <v>0.42903122111309761</v>
+        <v>0.70251570230764493</v>
       </c>
       <c r="N36" s="0">
-        <v>0.62895691313244884</v>
+        <v>0.11517101965329093</v>
       </c>
       <c r="O36" s="0">
-        <v>999.45179856115112</v>
+        <v>10.568720379146919</v>
       </c>
       <c r="P36" s="0">
-        <v>359.77122302158273</v>
-      </c>
-      <c r="Q36" s="0">
-        <v>7.8530214424951295</v>
-      </c>
-      <c r="R36" s="0">
-        <v>7.8530214424951295</v>
-      </c>
+        <v>136.90995260663507</v>
+      </c>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="B37" s="0">
         <v>36</v>
@@ -2435,51 +2803,51 @@
         <v>1.2195121951219512</v>
       </c>
       <c r="E37" s="0">
-        <v>51.219512195121951</v>
+        <v>48.780487804878049</v>
       </c>
       <c r="F37" s="0">
-        <v>45.121951219512191</v>
+        <v>39.024390243902438</v>
       </c>
       <c r="G37" s="0">
-        <v>1.1351351351351353</v>
+        <v>1.25</v>
       </c>
       <c r="H37" s="0">
-        <v>1205</v>
+        <v>898</v>
       </c>
       <c r="I37" s="0">
-        <v>47.767743967873301</v>
+        <v>41.236270066831359</v>
       </c>
       <c r="J37" s="0">
-        <v>1792.088042831648</v>
+        <v>1335.5145746579417</v>
       </c>
       <c r="K37" s="0">
-        <v>17.438147430884502</v>
+        <v>15.726392519178365</v>
       </c>
       <c r="L37" s="0">
-        <v>163.62343696195319</v>
+        <v>141.66221118729092</v>
       </c>
       <c r="M37" s="0">
-        <v>0.84115917103687121</v>
+        <v>0.83627759806070423</v>
       </c>
       <c r="N37" s="0">
-        <v>0.14044556468553082</v>
+        <v>0.26742947465580158</v>
       </c>
       <c r="O37" s="0">
-        <v>79.350207468879674</v>
+        <v>760.28173719376389</v>
       </c>
       <c r="P37" s="0">
-        <v>364.46141078838173</v>
+        <v>413.80400890868594</v>
       </c>
       <c r="Q37" s="0">
-        <v>25.936699294599194</v>
+        <v>34.146341463414636</v>
       </c>
       <c r="R37" s="0">
-        <v>25.936699294599194</v>
+        <v>34.146341463414636</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="B38" s="0">
         <v>37</v>
@@ -2491,51 +2859,51 @@
         <v>1.2195121951219512</v>
       </c>
       <c r="E38" s="0">
-        <v>23.170731707317074</v>
+        <v>147.5609756097561</v>
       </c>
       <c r="F38" s="0">
-        <v>18.292682926829269</v>
+        <v>96.341463414634148</v>
       </c>
       <c r="G38" s="0">
-        <v>1.2666666666666666</v>
+        <v>1.5316455696202531</v>
       </c>
       <c r="H38" s="0">
-        <v>194</v>
+        <v>4404</v>
       </c>
       <c r="I38" s="0">
-        <v>19.166467272185265</v>
+        <v>91.319781162728646</v>
       </c>
       <c r="J38" s="0">
-        <v>288.51873884592504</v>
+        <v>6549.6728138013086</v>
       </c>
       <c r="K38" s="0">
-        <v>7.488677841216659</v>
+        <v>44.321887758470197</v>
       </c>
       <c r="L38" s="0">
-        <v>71.456273595663262</v>
+        <v>406.82523741706086</v>
       </c>
       <c r="M38" s="0">
-        <v>0.71007326398539627</v>
+        <v>0.49729454626886371</v>
       </c>
       <c r="N38" s="0">
-        <v>0.86720265433749577</v>
+        <v>0.20531307963311562</v>
       </c>
       <c r="O38" s="0">
-        <v>1011.6907216494845</v>
+        <v>477.11353315168031</v>
       </c>
       <c r="P38" s="0">
-        <v>411.44845360824741</v>
+        <v>634.05926430517707</v>
       </c>
       <c r="Q38" s="0">
-        <v>5.266752910737388</v>
+        <v>25.527686326636726</v>
       </c>
       <c r="R38" s="0">
-        <v>5.266752910737388</v>
+        <v>25.527686326636726</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="B39" s="0">
         <v>38</v>
@@ -2547,51 +2915,51 @@
         <v>1.2195121951219512</v>
       </c>
       <c r="E39" s="0">
-        <v>89.024390243902431</v>
+        <v>509.7560975609756</v>
       </c>
       <c r="F39" s="0">
-        <v>64.634146341463406</v>
+        <v>237.80487804878049</v>
       </c>
       <c r="G39" s="0">
-        <v>1.3773584905660379</v>
+        <v>2.1435897435897435</v>
       </c>
       <c r="H39" s="0">
-        <v>2020</v>
+        <v>26563</v>
       </c>
       <c r="I39" s="0">
-        <v>61.846751272945546</v>
+        <v>224.27443335271485</v>
       </c>
       <c r="J39" s="0">
-        <v>3004.1641879833433</v>
+        <v>39504.759071980967</v>
       </c>
       <c r="K39" s="0">
-        <v>26.2083833480382</v>
+        <v>161.65251585149835</v>
       </c>
       <c r="L39" s="0">
-        <v>274.39024390243901</v>
+        <v>1488.4028748043829</v>
       </c>
       <c r="M39" s="0">
-        <v>0.50141370155072651</v>
+        <v>0.22408783522394812</v>
       </c>
       <c r="N39" s="0">
-        <v>0.51675815416031901</v>
+        <v>0.1658578941977859</v>
       </c>
       <c r="O39" s="0">
-        <v>851.02425742574258</v>
+        <v>455.72352520423146</v>
       </c>
       <c r="P39" s="0">
-        <v>949.27277227722777</v>
+        <v>717.76967962955996</v>
       </c>
       <c r="Q39" s="0">
-        <v>10.206503759398496</v>
+        <v>27.492485308074137</v>
       </c>
       <c r="R39" s="0">
-        <v>10.206503759398496</v>
+        <v>27.492485308074137</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="B40" s="0">
         <v>39</v>
@@ -2603,51 +2971,51 @@
         <v>1.2195121951219512</v>
       </c>
       <c r="E40" s="0">
-        <v>26.829268292682926</v>
+        <v>63.414634146341463</v>
       </c>
       <c r="F40" s="0">
-        <v>23.170731707317074</v>
+        <v>47.560975609756099</v>
       </c>
       <c r="G40" s="0">
-        <v>1.1578947368421051</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="H40" s="0">
-        <v>258</v>
+        <v>1488</v>
       </c>
       <c r="I40" s="0">
-        <v>22.102991665017452</v>
+        <v>53.081437138776757</v>
       </c>
       <c r="J40" s="0">
-        <v>383.70017846519931</v>
+        <v>2212.9684711481264</v>
       </c>
       <c r="K40" s="0">
-        <v>9.0367661396256338</v>
+        <v>19.621168173584273</v>
       </c>
       <c r="L40" s="0">
-        <v>87.235029055923349</v>
+        <v>180.40610086569319</v>
       </c>
       <c r="M40" s="0">
-        <v>0.63360711448343976</v>
+        <v>0.85444212242932938</v>
       </c>
       <c r="N40" s="0">
-        <v>0.56859241732600552</v>
+        <v>0.1850912631111252</v>
       </c>
       <c r="O40" s="0">
-        <v>771.55426356589146</v>
+        <v>284.83198924731181</v>
       </c>
       <c r="P40" s="0">
-        <v>989.74418604651157</v>
+        <v>638.875</v>
       </c>
       <c r="Q40" s="0">
-        <v>6.4620865139949117</v>
+        <v>25.580703613906135</v>
       </c>
       <c r="R40" s="0">
-        <v>6.4620865139949117</v>
+        <v>25.580703613906135</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="B41" s="0">
         <v>40</v>
@@ -2659,331 +3027,319 @@
         <v>1.2195121951219512</v>
       </c>
       <c r="E41" s="0">
-        <v>39.024390243902438</v>
+        <v>487.80487804878049</v>
       </c>
       <c r="F41" s="0">
-        <v>29.268292682926827</v>
+        <v>236.58536585365854</v>
       </c>
       <c r="G41" s="0">
-        <v>1.3333333333333335</v>
+        <v>2.0618556701030926</v>
       </c>
       <c r="H41" s="0">
-        <v>377</v>
+        <v>24759</v>
       </c>
       <c r="I41" s="0">
-        <v>26.718488262965661</v>
+        <v>216.52485520379875</v>
       </c>
       <c r="J41" s="0">
-        <v>560.67816775728738</v>
+        <v>36821.83224271267</v>
       </c>
       <c r="K41" s="0">
-        <v>11.608344530484544</v>
+        <v>161.33924336683432</v>
       </c>
       <c r="L41" s="0">
-        <v>115.11721868771777</v>
+        <v>1670.7388964928884</v>
       </c>
       <c r="M41" s="0">
-        <v>0.53167095189018387</v>
+        <v>0.1657670054133725</v>
       </c>
       <c r="N41" s="0">
-        <v>0.62836003463470103</v>
+        <v>0.19110565316004463</v>
       </c>
       <c r="O41" s="0">
-        <v>733.39787798408486</v>
+        <v>393.42166484914577</v>
       </c>
       <c r="P41" s="0">
-        <v>997.75862068965512</v>
+        <v>905.15222747283815</v>
       </c>
       <c r="Q41" s="0">
-        <v>5.03521695257316</v>
+        <v>30.948570974476024</v>
       </c>
       <c r="R41" s="0">
-        <v>5.03521695257316</v>
+        <v>30.948570974476024</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="B42" s="0">
         <v>41</v>
       </c>
       <c r="C42" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" s="0">
         <v>1.2195121951219512</v>
       </c>
       <c r="E42" s="0">
-        <v>91.463414634146346</v>
+        <v>93.902439024390247</v>
       </c>
       <c r="F42" s="0">
-        <v>50</v>
+        <v>89.024390243902431</v>
       </c>
       <c r="G42" s="0">
-        <v>1.8292682926829269</v>
+        <v>1.0547945205479454</v>
       </c>
       <c r="H42" s="0">
-        <v>1367</v>
+        <v>2834</v>
       </c>
       <c r="I42" s="0">
-        <v>50.877465002218848</v>
+        <v>73.25565061945143</v>
       </c>
       <c r="J42" s="0">
-        <v>2033.0160618679358</v>
+        <v>4214.7531231409876</v>
       </c>
       <c r="K42" s="0">
-        <v>26.542704424042356</v>
+        <v>33.501676984018637</v>
       </c>
       <c r="L42" s="0">
-        <v>237.53552253901444</v>
+        <v>449.01034333723442</v>
       </c>
       <c r="M42" s="0">
-        <v>0.45278657535032024</v>
+        <v>0.26270559011391958</v>
       </c>
       <c r="N42" s="0">
-        <v>0.20343192139269239</v>
+        <v>0.22521841297599826</v>
       </c>
       <c r="O42" s="0">
-        <v>83.457205559619609</v>
+        <v>114.05363443895554</v>
       </c>
       <c r="P42" s="0">
-        <v>23.451353328456474</v>
+        <v>944.66513761467888</v>
       </c>
       <c r="Q42" s="0">
-        <v>15.154969432314408</v>
+        <v>28.022256812380633</v>
       </c>
       <c r="R42" s="0">
-        <v>15.154969432314408</v>
+        <v>28.022256812380633</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="B43" s="0">
         <v>42</v>
       </c>
       <c r="C43" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" s="0">
         <v>1.2195121951219512</v>
       </c>
       <c r="E43" s="0">
-        <v>76.829268292682926</v>
+        <v>37.804878048780488</v>
       </c>
       <c r="F43" s="0">
-        <v>52.439024390243901</v>
+        <v>36.585365853658537</v>
       </c>
       <c r="G43" s="0">
-        <v>1.4651162790697674</v>
+        <v>1.0333333333333332</v>
       </c>
       <c r="H43" s="0">
-        <v>1659</v>
+        <v>703</v>
       </c>
       <c r="I43" s="0">
-        <v>56.048552355715479</v>
+        <v>36.485379630108717</v>
       </c>
       <c r="J43" s="0">
-        <v>2467.2813801308744</v>
+        <v>1045.5086258179656</v>
       </c>
       <c r="K43" s="0">
-        <v>23.730849767745326</v>
+        <v>13.74176503682135</v>
       </c>
       <c r="L43" s="0">
-        <v>219.04025407984582</v>
+        <v>125.26967983586567</v>
       </c>
       <c r="M43" s="0">
-        <v>0.64622041842033762</v>
+        <v>0.83723147974497503</v>
       </c>
       <c r="N43" s="0">
-        <v>0.3136637732970714</v>
+        <v>0.29856891620353238</v>
       </c>
       <c r="O43" s="0">
-        <v>614.59071729957805</v>
+        <v>420.28165007112375</v>
       </c>
       <c r="P43" s="0">
-        <v>23.294755877034358</v>
+        <v>1004.6586059743954</v>
       </c>
       <c r="Q43" s="0">
-        <v>19.717414335198509</v>
+        <v>26.829268292682926</v>
       </c>
       <c r="R43" s="0">
-        <v>19.717414335198509</v>
+        <v>26.829268292682926</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="B44" s="0">
         <v>43</v>
       </c>
       <c r="C44" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="0">
         <v>1.2195121951219512</v>
       </c>
       <c r="E44" s="0">
-        <v>57.317073170731703</v>
+        <v>25.609756097560975</v>
       </c>
       <c r="F44" s="0">
-        <v>28.048780487804876</v>
+        <v>18.292682926829269</v>
       </c>
       <c r="G44" s="0">
-        <v>2.0434782608695654</v>
+        <v>1.3999999999999999</v>
       </c>
       <c r="H44" s="0">
-        <v>542</v>
+        <v>234</v>
       </c>
       <c r="I44" s="0">
-        <v>32.036189224956132</v>
+        <v>21.049856311286316</v>
       </c>
       <c r="J44" s="0">
-        <v>806.06781677572872</v>
+        <v>348.00713860797146</v>
       </c>
       <c r="K44" s="0">
-        <v>17.479641521690333</v>
+        <v>7.8792045349582738</v>
       </c>
       <c r="L44" s="0">
-        <v>164.60321729529997</v>
+        <v>75.904404000471445</v>
       </c>
       <c r="M44" s="0">
-        <v>0.37385638877759897</v>
+        <v>0.75903895931721754</v>
       </c>
       <c r="N44" s="0">
-        <v>0.55819685513116013</v>
+        <v>0.27626618231016165</v>
       </c>
       <c r="O44" s="0">
-        <v>977.83394833948341</v>
+        <v>683.79914529914527</v>
       </c>
       <c r="P44" s="0">
-        <v>38.512915129151288</v>
-      </c>
-      <c r="Q44" s="0">
-        <v>7.0706896551724139</v>
-      </c>
-      <c r="R44" s="0">
-        <v>7.0706896551724139</v>
-      </c>
+        <v>1012.1666666666666</v>
+      </c>
+      <c r="Q44" s="0"/>
+      <c r="R44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="B45" s="0">
         <v>44</v>
       </c>
       <c r="C45" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="0">
         <v>1.2195121951219512</v>
       </c>
       <c r="E45" s="0">
-        <v>67.073170731707322</v>
+        <v>26.829268292682926</v>
       </c>
       <c r="F45" s="0">
-        <v>50</v>
+        <v>17.073170731707318</v>
       </c>
       <c r="G45" s="0">
-        <v>1.3414634146341464</v>
+        <v>1.5714285714285712</v>
       </c>
       <c r="H45" s="0">
-        <v>1729</v>
+        <v>224</v>
       </c>
       <c r="I45" s="0">
-        <v>57.218794477636173</v>
+        <v>20.59516217387684</v>
       </c>
       <c r="J45" s="0">
-        <v>2571.3860797144557</v>
+        <v>333.13503866745987</v>
       </c>
       <c r="K45" s="0">
-        <v>21.064761508665423</v>
+        <v>7.9130833296294396</v>
       </c>
       <c r="L45" s="0">
-        <v>193.23412734480493</v>
+        <v>75.64311027316684</v>
       </c>
       <c r="M45" s="0">
-        <v>0.86538525699013336</v>
+        <v>0.7316298601327661</v>
       </c>
       <c r="N45" s="0">
-        <v>0.2336177049677074</v>
+        <v>0.33784792085981219</v>
       </c>
       <c r="O45" s="0">
-        <v>552.57200694042797</v>
+        <v>516.54910714285711</v>
       </c>
       <c r="P45" s="0">
-        <v>81.929438982070565</v>
-      </c>
-      <c r="Q45" s="0">
-        <v>25.564417462879003</v>
-      </c>
-      <c r="R45" s="0">
-        <v>25.564417462879003</v>
-      </c>
+        <v>1012.6919642857143</v>
+      </c>
+      <c r="Q45" s="0"/>
+      <c r="R45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="B46" s="0">
         <v>45</v>
       </c>
       <c r="C46" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="0">
         <v>1.2195121951219512</v>
       </c>
       <c r="E46" s="0">
-        <v>209.7560975609756</v>
+        <v>24.390243902439025</v>
       </c>
       <c r="F46" s="0">
-        <v>190.2439024390244</v>
+        <v>13.414634146341463</v>
       </c>
       <c r="G46" s="0">
-        <v>1.1025641025641024</v>
+        <v>1.8181818181818183</v>
       </c>
       <c r="H46" s="0">
-        <v>10400</v>
+        <v>160</v>
       </c>
       <c r="I46" s="0">
-        <v>140.33237540857542</v>
+        <v>17.406088938075815</v>
       </c>
       <c r="J46" s="0">
-        <v>15466.983938132065</v>
+        <v>237.95359904818559</v>
       </c>
       <c r="K46" s="0">
-        <v>68.581320409377938</v>
+        <v>6.7783919584504329</v>
       </c>
       <c r="L46" s="0">
-        <v>711.69663323061116</v>
+        <v>66.38642822146025</v>
       </c>
       <c r="M46" s="0">
-        <v>0.38372993126050631</v>
+        <v>0.67849013243331979</v>
       </c>
       <c r="N46" s="0">
-        <v>0.1689823813595599</v>
+        <v>0.20591182832465058</v>
       </c>
       <c r="O46" s="0">
-        <v>138.82317307692307</v>
+        <v>585.71875</v>
       </c>
       <c r="P46" s="0">
-        <v>298.15509615384616</v>
-      </c>
-      <c r="Q46" s="0">
-        <v>38.154638428294803</v>
-      </c>
-      <c r="R46" s="0">
-        <v>38.154638428294803</v>
-      </c>
+        <v>1013.7125</v>
+      </c>
+      <c r="Q46" s="0"/>
+      <c r="R46" s="0"/>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="B47" s="0">
         <v>46</v>
@@ -2992,54 +3348,50 @@
         <v>14</v>
       </c>
       <c r="D47" s="0">
-        <v>1.2195121951219512</v>
+        <v>2.3696682464454977</v>
       </c>
       <c r="E47" s="0">
-        <v>628.04878048780483</v>
+        <v>165.87677725118485</v>
       </c>
       <c r="F47" s="0">
-        <v>439.02439024390242</v>
+        <v>56.872037914691944</v>
       </c>
       <c r="G47" s="0">
-        <v>1.4305555555555556</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="H47" s="0">
-        <v>66946</v>
+        <v>939</v>
       </c>
       <c r="I47" s="0">
-        <v>356.04387868385743</v>
+        <v>81.93612187704808</v>
       </c>
       <c r="J47" s="0">
-        <v>99562.760261748961</v>
+        <v>5272.7926147211429</v>
       </c>
       <c r="K47" s="0">
-        <v>188.39594035963208</v>
+        <v>43.512203982703134</v>
       </c>
       <c r="L47" s="0">
-        <v>2481.9789288200818</v>
+        <v>433.54031891307841</v>
       </c>
       <c r="M47" s="0">
-        <v>0.20310032207728201</v>
+        <v>0.35252633740862788</v>
       </c>
       <c r="N47" s="0">
-        <v>0.1844998722346371</v>
+        <v>0.20120017701034595</v>
       </c>
       <c r="O47" s="0">
-        <v>457.1838197950587</v>
+        <v>302.60063897763581</v>
       </c>
       <c r="P47" s="0">
-        <v>681.6794879455083</v>
-      </c>
-      <c r="Q47" s="0">
-        <v>49.587294324042695</v>
-      </c>
-      <c r="R47" s="0">
-        <v>49.587294324042695</v>
-      </c>
+        <v>15.553780617678381</v>
+      </c>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="B48" s="0">
         <v>47</v>
@@ -3048,54 +3400,50 @@
         <v>14</v>
       </c>
       <c r="D48" s="0">
-        <v>1.2195121951219512</v>
+        <v>2.3696682464454977</v>
       </c>
       <c r="E48" s="0">
-        <v>71.951219512195124</v>
+        <v>63.981042654028435</v>
       </c>
       <c r="F48" s="0">
-        <v>70.731707317073173</v>
+        <v>40.284360189573462</v>
       </c>
       <c r="G48" s="0">
-        <v>1.0172413793103448</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="H48" s="0">
-        <v>2442</v>
+        <v>319</v>
       </c>
       <c r="I48" s="0">
-        <v>68.000802303977508</v>
+        <v>47.757100334347598</v>
       </c>
       <c r="J48" s="0">
-        <v>3631.7668054729329</v>
+        <v>1791.2895038296533</v>
       </c>
       <c r="K48" s="0">
-        <v>25.010430737157975</v>
+        <v>18.459618935725647</v>
       </c>
       <c r="L48" s="0">
-        <v>229.00396598566871</v>
+        <v>181.70698162619524</v>
       </c>
       <c r="M48" s="0">
-        <v>0.87024555054516872</v>
+        <v>0.68176141241032717</v>
       </c>
       <c r="N48" s="0">
-        <v>0.38534713047444719</v>
+        <v>0.24656128974074526</v>
       </c>
       <c r="O48" s="0">
-        <v>868.38943488943494</v>
+        <v>502.0438871473354</v>
       </c>
       <c r="P48" s="0">
-        <v>635.83988533988531</v>
-      </c>
-      <c r="Q48" s="0">
-        <v>42.886295977096893</v>
-      </c>
-      <c r="R48" s="0">
-        <v>42.886295977096893</v>
-      </c>
+        <v>12.401253918495298</v>
+      </c>
+      <c r="Q48" s="0"/>
+      <c r="R48" s="0"/>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="B49" s="0">
         <v>48</v>
@@ -3104,54 +3452,54 @@
         <v>14</v>
       </c>
       <c r="D49" s="0">
-        <v>1.2195121951219512</v>
+        <v>2.3696682464454977</v>
       </c>
       <c r="E49" s="0">
-        <v>164.63414634146341</v>
+        <v>341.23222748815169</v>
       </c>
       <c r="F49" s="0">
-        <v>132.92682926829269</v>
+        <v>142.18009478672985</v>
       </c>
       <c r="G49" s="0">
-        <v>1.238532110091743</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="H49" s="0">
-        <v>8426</v>
+        <v>5444</v>
       </c>
       <c r="I49" s="0">
-        <v>126.31412975308942</v>
+        <v>197.28845265274006</v>
       </c>
       <c r="J49" s="0">
-        <v>12531.231409875074</v>
+        <v>30569.84344466656</v>
       </c>
       <c r="K49" s="0">
-        <v>50.403541909023595</v>
+        <v>94.027395920513641</v>
       </c>
       <c r="L49" s="0">
-        <v>508.97417439317474</v>
+        <v>1095.4063191635437</v>
       </c>
       <c r="M49" s="0">
-        <v>0.60787197433967632</v>
+        <v>0.32014932811717162</v>
       </c>
       <c r="N49" s="0">
-        <v>0.26658504216576534</v>
+        <v>0.18766675192181803</v>
       </c>
       <c r="O49" s="0">
-        <v>779.63066698314742</v>
+        <v>604.93956649522408</v>
       </c>
       <c r="P49" s="0">
-        <v>740.5033230477095</v>
+        <v>29.646399706098457</v>
       </c>
       <c r="Q49" s="0">
-        <v>39.115228483796955</v>
+        <v>113.7440758293839</v>
       </c>
       <c r="R49" s="0">
-        <v>39.115228483796955</v>
+        <v>113.7440758293839</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="B50" s="0">
         <v>49</v>
@@ -3160,54 +3508,50 @@
         <v>14</v>
       </c>
       <c r="D50" s="0">
-        <v>1.2195121951219512</v>
+        <v>2.3696682464454977</v>
       </c>
       <c r="E50" s="0">
-        <v>64.634146341463406</v>
+        <v>40.284360189573462</v>
       </c>
       <c r="F50" s="0">
-        <v>52.439024390243901</v>
+        <v>21.327014218009481</v>
       </c>
       <c r="G50" s="0">
-        <v>1.2325581395348837</v>
+        <v>1.8888888888888888</v>
       </c>
       <c r="H50" s="0">
-        <v>1456</v>
+        <v>126</v>
       </c>
       <c r="I50" s="0">
-        <v>52.507566905103005</v>
+        <v>30.014276627806293</v>
       </c>
       <c r="J50" s="0">
-        <v>2165.3777513384889</v>
+        <v>707.53127737472198</v>
       </c>
       <c r="K50" s="0">
-        <v>20.300470814530925</v>
+        <v>12.338653432578395</v>
       </c>
       <c r="L50" s="0">
-        <v>203.90103978840438</v>
+        <v>112.44330112918486</v>
       </c>
       <c r="M50" s="0">
-        <v>0.65449246849420673</v>
+        <v>0.70321533495656263</v>
       </c>
       <c r="N50" s="0">
-        <v>0.5121396062939213</v>
+        <v>0.4727486971563562</v>
       </c>
       <c r="O50" s="0">
-        <v>895.84065934065939</v>
+        <v>16.111111111111111</v>
       </c>
       <c r="P50" s="0">
-        <v>782.87087912087907</v>
-      </c>
-      <c r="Q50" s="0">
-        <v>14.544170854271362</v>
-      </c>
-      <c r="R50" s="0">
-        <v>14.544170854271362</v>
-      </c>
+        <v>15.896825396825397</v>
+      </c>
+      <c r="Q50" s="0"/>
+      <c r="R50" s="0"/>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="B51" s="0">
         <v>50</v>
@@ -3216,2401 +3560,2381 @@
         <v>14</v>
       </c>
       <c r="D51" s="0">
-        <v>1.2195121951219512</v>
+        <v>2.3696682464454977</v>
       </c>
       <c r="E51" s="0">
-        <v>24.390243902439025</v>
+        <v>104.26540284360189</v>
       </c>
       <c r="F51" s="0">
-        <v>8.536585365853659</v>
+        <v>68.720379146919427</v>
       </c>
       <c r="G51" s="0">
-        <v>2.8571428571428572</v>
+        <v>1.5172413793103448</v>
       </c>
       <c r="H51" s="0">
-        <v>122</v>
+        <v>794</v>
       </c>
       <c r="I51" s="0">
-        <v>15.199213737613421</v>
+        <v>75.344726297339193</v>
       </c>
       <c r="J51" s="0">
-        <v>181.43961927424152</v>
+        <v>4458.5701129803911</v>
       </c>
       <c r="K51" s="0">
-        <v>6.8078715390750126</v>
+        <v>28.687372733663011</v>
       </c>
       <c r="L51" s="0">
-        <v>60.749333001969767</v>
+        <v>286.78922334478688</v>
       </c>
       <c r="M51" s="0">
-        <v>0.61781573069182549</v>
+        <v>0.68120810855983505</v>
       </c>
       <c r="N51" s="0">
-        <v>0.38787211486067363</v>
+        <v>0.17495116679980449</v>
       </c>
       <c r="O51" s="0">
-        <v>588.40163934426232</v>
+        <v>291.87909319899245</v>
       </c>
       <c r="P51" s="0">
-        <v>1015.188524590164</v>
-      </c>
-      <c r="Q51" s="0">
-        <v>5.1566469093988143</v>
-      </c>
-      <c r="R51" s="0">
-        <v>5.1566469093988143</v>
-      </c>
+        <v>112.44206549118388</v>
+      </c>
+      <c r="Q51" s="0"/>
+      <c r="R51" s="0"/>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="B52" s="0">
         <v>51</v>
       </c>
       <c r="C52" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" s="0">
-        <v>1.2195121951219512</v>
+        <v>2.3696682464454977</v>
       </c>
       <c r="E52" s="0">
-        <v>918.29268292682923</v>
+        <v>469.19431279620852</v>
       </c>
       <c r="F52" s="0">
-        <v>725.60975609756099</v>
+        <v>286.72985781990519</v>
       </c>
       <c r="G52" s="0">
-        <v>1.2655462184873949</v>
+        <v>1.6363636363636365</v>
       </c>
       <c r="H52" s="0">
-        <v>186567</v>
+        <v>9005</v>
       </c>
       <c r="I52" s="0">
-        <v>594.37238148671543</v>
+        <v>253.7373891998389</v>
       </c>
       <c r="J52" s="0">
-        <v>277464.3069601428</v>
+        <v>50566.025021899775</v>
       </c>
       <c r="K52" s="0">
-        <v>304.55551587311874</v>
+        <v>138.04043787511296</v>
       </c>
       <c r="L52" s="0">
-        <v>6358.8200309037411</v>
+        <v>1613.1460591264988</v>
       </c>
       <c r="M52" s="0">
-        <v>0.086231098796007946</v>
+        <v>0.24418630107561221</v>
       </c>
       <c r="N52" s="0">
-        <v>0.056524699078119564</v>
+        <v>0.19180396387099807</v>
       </c>
       <c r="O52" s="0">
-        <v>243.09866696682693</v>
+        <v>641.86063298167687</v>
       </c>
       <c r="P52" s="0">
-        <v>313.31455187680564</v>
+        <v>172.01821210438646</v>
       </c>
       <c r="Q52" s="0">
-        <v>13.464197530864135</v>
+        <v>42.654028436018969</v>
       </c>
       <c r="R52" s="0">
-        <v>13.464197530864135</v>
+        <v>42.654028436018969</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="B53" s="0">
         <v>52</v>
       </c>
       <c r="C53" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" s="0">
-        <v>1.2195121951219512</v>
+        <v>2.3696682464454977</v>
       </c>
       <c r="E53" s="0">
-        <v>420.73170731707319</v>
+        <v>244.07582938388626</v>
       </c>
       <c r="F53" s="0">
-        <v>390.2439024390244</v>
+        <v>156.39810426540285</v>
       </c>
       <c r="G53" s="0">
-        <v>1.078125</v>
+        <v>1.5606060606060606</v>
       </c>
       <c r="H53" s="0">
-        <v>50197</v>
+        <v>3345</v>
       </c>
       <c r="I53" s="0">
-        <v>308.3046593533532</v>
+        <v>154.64670440208488</v>
       </c>
       <c r="J53" s="0">
-        <v>74653.480071386075</v>
+        <v>18783.270816019405</v>
       </c>
       <c r="K53" s="0">
-        <v>125.54852022712554</v>
+        <v>68.850401653692728</v>
       </c>
       <c r="L53" s="0">
-        <v>1887.8048780487804</v>
+        <v>742.20249888451701</v>
       </c>
       <c r="M53" s="0">
-        <v>0.26323626122937133</v>
+        <v>0.42848562809553009</v>
       </c>
       <c r="N53" s="0">
-        <v>0.12253373826998212</v>
+        <v>0.14916606314451872</v>
       </c>
       <c r="O53" s="0">
-        <v>728.21268203279078</v>
+        <v>233.5375186846039</v>
       </c>
       <c r="P53" s="0">
-        <v>156.18766061716835</v>
+        <v>176.8762331838565</v>
       </c>
       <c r="Q53" s="0">
-        <v>37.722567200590262</v>
+        <v>37.914691943127956</v>
       </c>
       <c r="R53" s="0">
-        <v>37.722567200590262</v>
+        <v>37.914691943127956</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="B54" s="0">
         <v>53</v>
       </c>
       <c r="C54" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D54" s="0">
-        <v>1.2195121951219512</v>
+        <v>2.3696682464454977</v>
       </c>
       <c r="E54" s="0">
-        <v>48.780487804878049</v>
+        <v>322.2748815165877</v>
       </c>
       <c r="F54" s="0">
-        <v>18.292682926829269</v>
+        <v>213.27014218009478</v>
       </c>
       <c r="G54" s="0">
-        <v>2.6666666666666665</v>
+        <v>1.5111111111111113</v>
       </c>
       <c r="H54" s="0">
-        <v>438</v>
+        <v>7086</v>
       </c>
       <c r="I54" s="0">
-        <v>28.799056654325714</v>
+        <v>225.08325259358466</v>
       </c>
       <c r="J54" s="0">
-        <v>651.39797739440814</v>
+        <v>39790.211360930793</v>
       </c>
       <c r="K54" s="0">
-        <v>13.418356397834275</v>
+        <v>91.215080457689012</v>
       </c>
       <c r="L54" s="0">
-        <v>117.02393108282438</v>
+        <v>937.98103998499278</v>
       </c>
       <c r="M54" s="0">
-        <v>0.59773254675178344</v>
+        <v>0.56832660947085789</v>
       </c>
       <c r="N54" s="0">
-        <v>0.16546397928121673</v>
+        <v>0.20168900515393981</v>
       </c>
       <c r="O54" s="0">
-        <v>768.16438356164383</v>
+        <v>458.90544736099349</v>
       </c>
       <c r="P54" s="0">
-        <v>12.34703196347032</v>
+        <v>255.19517358171041</v>
       </c>
       <c r="Q54" s="0">
-        <v>9.5457994579945851</v>
+        <v>58.044780634672435</v>
       </c>
       <c r="R54" s="0">
-        <v>9.5457994579945851</v>
+        <v>58.044780634672435</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="B55" s="0">
         <v>54</v>
       </c>
       <c r="C55" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" s="0">
-        <v>1.2195121951219512</v>
+        <v>2.3696682464454977</v>
       </c>
       <c r="E55" s="0">
-        <v>14.634146341463413</v>
+        <v>94.786729857819907</v>
       </c>
       <c r="F55" s="0">
-        <v>8.536585365853659</v>
+        <v>40.284360189573462</v>
       </c>
       <c r="G55" s="0">
-        <v>1.714285714285714</v>
+        <v>2.3529411764705883</v>
       </c>
       <c r="H55" s="0">
-        <v>78</v>
+        <v>485</v>
       </c>
       <c r="I55" s="0">
-        <v>12.153140207724096</v>
+        <v>58.886192948966205</v>
       </c>
       <c r="J55" s="0">
-        <v>116.00237953599049</v>
+        <v>2723.4338851328584</v>
       </c>
       <c r="K55" s="0">
-        <v>4.4616116160663326</v>
+        <v>25.928112082945713</v>
       </c>
       <c r="L55" s="0">
-        <v>43.238208638465018</v>
+        <v>241.47473181721733</v>
       </c>
       <c r="M55" s="0">
-        <v>0.77972485148777559</v>
+        <v>0.5869259558113501</v>
       </c>
       <c r="N55" s="0">
-        <v>0.27446393912597078</v>
+        <v>0.30820630762993423</v>
       </c>
       <c r="O55" s="0">
-        <v>869.79487179487182</v>
+        <v>12.14020618556701</v>
       </c>
       <c r="P55" s="0">
-        <v>71.217948717948715</v>
-      </c>
-      <c r="Q55" s="0">
-        <v>9.8988703492556809</v>
-      </c>
-      <c r="R55" s="0">
-        <v>9.8988703492556809</v>
-      </c>
+        <v>201.23711340206185</v>
+      </c>
+      <c r="Q55" s="0"/>
+      <c r="R55" s="0"/>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="B56" s="0">
         <v>55</v>
       </c>
       <c r="C56" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" s="0">
-        <v>1.2195121951219512</v>
+        <v>2.3696682464454977</v>
       </c>
       <c r="E56" s="0">
-        <v>37.804878048780488</v>
+        <v>42.654028436018962</v>
       </c>
       <c r="F56" s="0">
-        <v>15.853658536585366</v>
+        <v>42.654028436018962</v>
       </c>
       <c r="G56" s="0">
-        <v>2.3846153846153846</v>
+        <v>1</v>
       </c>
       <c r="H56" s="0">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="I56" s="0">
-        <v>24.228250421417094</v>
+        <v>39.479428310471043</v>
       </c>
       <c r="J56" s="0">
-        <v>461.0350981558596</v>
+        <v>1224.1414164102334</v>
       </c>
       <c r="K56" s="0">
-        <v>10.380758211175451</v>
+        <v>15.433558997425996</v>
       </c>
       <c r="L56" s="0">
-        <v>94.25697889500762</v>
+        <v>143.0642317054382</v>
       </c>
       <c r="M56" s="0">
-        <v>0.65210393611537032</v>
+        <v>0.7515871077194668</v>
       </c>
       <c r="N56" s="0">
-        <v>0.028959832526828305</v>
+        <v>0.33627355805149028</v>
       </c>
       <c r="O56" s="0">
-        <v>11.016129032258064</v>
+        <v>269.96788990825689</v>
       </c>
       <c r="P56" s="0">
-        <v>135.53870967741935</v>
-      </c>
-      <c r="Q56" s="0">
-        <v>7.6265700483091825</v>
-      </c>
-      <c r="R56" s="0">
-        <v>7.6265700483091825</v>
-      </c>
+        <v>260.50458715596329</v>
+      </c>
+      <c r="Q56" s="0"/>
+      <c r="R56" s="0"/>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="B57" s="0">
         <v>56</v>
       </c>
       <c r="C57" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" s="0">
-        <v>1.2195121951219512</v>
+        <v>2.3696682464454977</v>
       </c>
       <c r="E57" s="0">
-        <v>47.560975609756099</v>
+        <v>582.93838862559244</v>
       </c>
       <c r="F57" s="0">
-        <v>37.804878048780488</v>
+        <v>466.82464454976304</v>
       </c>
       <c r="G57" s="0">
-        <v>1.2580645161290323</v>
+        <v>1.248730964467005</v>
       </c>
       <c r="H57" s="0">
-        <v>908</v>
+        <v>23951</v>
       </c>
       <c r="I57" s="0">
-        <v>41.465235014191883</v>
+        <v>413.81328943364377</v>
       </c>
       <c r="J57" s="0">
-        <v>1350.3866745984533</v>
+        <v>134492.71130477751</v>
       </c>
       <c r="K57" s="0">
-        <v>15.549395515173778</v>
+        <v>183.74836028883499</v>
       </c>
       <c r="L57" s="0">
-        <v>139.95083266422125</v>
+        <v>2548.2995912787592</v>
       </c>
       <c r="M57" s="0">
-        <v>0.86639718851327741</v>
+        <v>0.2602601307978431</v>
       </c>
       <c r="N57" s="0">
-        <v>0.26129183840773545</v>
+        <v>0.11988422837339108</v>
       </c>
       <c r="O57" s="0">
-        <v>760.42290748898677</v>
+        <v>290.8719468915703</v>
       </c>
       <c r="P57" s="0">
-        <v>413.78193832599118</v>
+        <v>404.15857375474928</v>
       </c>
       <c r="Q57" s="0">
-        <v>28.615432127208813</v>
+        <v>49.348663569983074</v>
       </c>
       <c r="R57" s="0">
-        <v>28.615432127208813</v>
+        <v>49.348663569983074</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="B58" s="0">
         <v>57</v>
       </c>
       <c r="C58" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" s="0">
-        <v>1.2195121951219512</v>
+        <v>2.3696682464454977</v>
       </c>
       <c r="E58" s="0">
-        <v>147.5609756097561</v>
+        <v>151.65876777251185</v>
       </c>
       <c r="F58" s="0">
-        <v>96.341463414634148</v>
+        <v>92.417061611374407</v>
       </c>
       <c r="G58" s="0">
-        <v>1.5316455696202531</v>
+        <v>1.641025641025641</v>
       </c>
       <c r="H58" s="0">
-        <v>4774</v>
+        <v>1461</v>
       </c>
       <c r="I58" s="0">
-        <v>95.078520311564716</v>
+        <v>102.20395835287765</v>
       </c>
       <c r="J58" s="0">
-        <v>7099.9405116002381</v>
+        <v>8203.9936209878488</v>
       </c>
       <c r="K58" s="0">
-        <v>44.344747691121732</v>
+        <v>43.851654274767093</v>
       </c>
       <c r="L58" s="0">
-        <v>399.83791899715061</v>
+        <v>437.59425722437032</v>
       </c>
       <c r="M58" s="0">
-        <v>0.5580802031685258</v>
+        <v>0.53838375882205247</v>
       </c>
       <c r="N58" s="0">
-        <v>0.17712557007686799</v>
+        <v>0.18370703706929878</v>
       </c>
       <c r="O58" s="0">
-        <v>476.92228739002934</v>
+        <v>161.75017111567419</v>
       </c>
       <c r="P58" s="0">
-        <v>634.06535400083783</v>
+        <v>334.26899383983573</v>
       </c>
       <c r="Q58" s="0">
-        <v>41.830366585894211</v>
+        <v>55.06611392711968</v>
       </c>
       <c r="R58" s="0">
-        <v>41.830366585894211</v>
+        <v>55.06611392711968</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="B59" s="0">
         <v>58</v>
       </c>
       <c r="C59" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" s="0">
-        <v>1.2195121951219512</v>
+        <v>2.3696682464454977</v>
       </c>
       <c r="E59" s="0">
-        <v>509.7560975609756</v>
+        <v>421.80094786729859</v>
       </c>
       <c r="F59" s="0">
-        <v>239.02439024390245</v>
+        <v>241.70616113744077</v>
       </c>
       <c r="G59" s="0">
-        <v>2.1326530612244898</v>
+        <v>1.7450980392156863</v>
       </c>
       <c r="H59" s="0">
-        <v>29560</v>
+        <v>9690</v>
       </c>
       <c r="I59" s="0">
-        <v>236.58838614608268</v>
+        <v>263.2112798284121</v>
       </c>
       <c r="J59" s="0">
-        <v>43961.927424152294</v>
+        <v>54412.524426675052</v>
       </c>
       <c r="K59" s="0">
-        <v>165.5530729701162</v>
+        <v>120.07872823245727</v>
       </c>
       <c r="L59" s="0">
-        <v>1581.181603846195</v>
+        <v>1194.495489235296</v>
       </c>
       <c r="M59" s="0">
-        <v>0.22096479371044578</v>
+        <v>0.47922527030399409</v>
       </c>
       <c r="N59" s="0">
-        <v>0.14747090263471352</v>
+        <v>0.17770244468664401</v>
       </c>
       <c r="O59" s="0">
-        <v>446.11461434370773</v>
+        <v>491.86511867905057</v>
       </c>
       <c r="P59" s="0">
-        <v>713.38643437077133</v>
+        <v>383.22930856553148</v>
       </c>
       <c r="Q59" s="0">
-        <v>43.919981202629344</v>
+        <v>54.491915440235381</v>
       </c>
       <c r="R59" s="0">
-        <v>43.919981202629344</v>
+        <v>54.491915440235381</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="B60" s="0">
         <v>59</v>
       </c>
       <c r="C60" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" s="0">
-        <v>1.2195121951219512</v>
+        <v>2.3696682464454977</v>
       </c>
       <c r="E60" s="0">
-        <v>370.73170731707319</v>
+        <v>101.89573459715641</v>
       </c>
       <c r="F60" s="0">
-        <v>302.4390243902439</v>
+        <v>80.568720379146924</v>
       </c>
       <c r="G60" s="0">
-        <v>1.2258064516129032</v>
+        <v>1.2647058823529411</v>
       </c>
       <c r="H60" s="0">
-        <v>32383</v>
+        <v>844</v>
       </c>
       <c r="I60" s="0">
-        <v>247.62799818791453</v>
+        <v>77.680825424008432</v>
       </c>
       <c r="J60" s="0">
-        <v>48160.321237358716</v>
+        <v>4739.336492890995</v>
       </c>
       <c r="K60" s="0">
-        <v>104.35638181389292</v>
+        <v>30.586040338393104</v>
       </c>
       <c r="L60" s="0">
-        <v>1385.3658536585365</v>
+        <v>379.03729253566536</v>
       </c>
       <c r="M60" s="0">
-        <v>0.3153336233547358</v>
+        <v>0.41453721589401532</v>
       </c>
       <c r="N60" s="0">
-        <v>0.21757486740938276</v>
+        <v>0.049053196786202645</v>
       </c>
       <c r="O60" s="0">
-        <v>802.98465244109559</v>
+        <v>435.21090047393363</v>
       </c>
       <c r="P60" s="0">
-        <v>853.93437914955382</v>
-      </c>
-      <c r="Q60" s="0">
-        <v>23.942533608007803</v>
-      </c>
-      <c r="R60" s="0">
-        <v>23.942533608007803</v>
-      </c>
+        <v>502.36137440758296</v>
+      </c>
+      <c r="Q60" s="0"/>
+      <c r="R60" s="0"/>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="B61" s="0">
         <v>60</v>
       </c>
       <c r="C61" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" s="0">
-        <v>1.2195121951219512</v>
+        <v>2.3696682464454977</v>
       </c>
       <c r="E61" s="0">
-        <v>490.2439024390244</v>
+        <v>68.720379146919427</v>
       </c>
       <c r="F61" s="0">
-        <v>263.41463414634148</v>
+        <v>45.023696682464454</v>
       </c>
       <c r="G61" s="0">
-        <v>1.8611111111111109</v>
+        <v>1.5263157894736841</v>
       </c>
       <c r="H61" s="0">
-        <v>26745</v>
+        <v>319</v>
       </c>
       <c r="I61" s="0">
-        <v>225.04144513504187</v>
+        <v>47.757100334347598</v>
       </c>
       <c r="J61" s="0">
-        <v>39775.431290898276</v>
+        <v>1791.2895038296533</v>
       </c>
       <c r="K61" s="0">
-        <v>163.48967683258616</v>
+        <v>20.994188564453829</v>
       </c>
       <c r="L61" s="0">
-        <v>1703.4419695778345</v>
+        <v>192.88800881076395</v>
       </c>
       <c r="M61" s="0">
-        <v>0.17225430117834958</v>
+        <v>0.60501366715540894</v>
       </c>
       <c r="N61" s="0">
-        <v>0.16755397790826401</v>
+        <v>0.23187238688442768</v>
       </c>
       <c r="O61" s="0">
-        <v>398.63899794354086</v>
+        <v>155.93730407523512</v>
       </c>
       <c r="P61" s="0">
-        <v>907.79162460272948</v>
-      </c>
-      <c r="Q61" s="0">
-        <v>33.658108182214754</v>
-      </c>
-      <c r="R61" s="0">
-        <v>33.658108182214754</v>
-      </c>
+        <v>679.34482758620686</v>
+      </c>
+      <c r="Q61" s="0"/>
+      <c r="R61" s="0"/>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="B62" s="0">
         <v>61</v>
       </c>
       <c r="C62" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D62" s="0">
         <v>1.2195121951219512</v>
       </c>
       <c r="E62" s="0">
-        <v>92.682926829268297</v>
+        <v>45.121951219512191</v>
       </c>
       <c r="F62" s="0">
-        <v>90.243902439024382</v>
+        <v>18.292682926829269</v>
       </c>
       <c r="G62" s="0">
-        <v>1.0270270270270272</v>
+        <v>2.4666666666666663</v>
       </c>
       <c r="H62" s="0">
-        <v>3359</v>
+        <v>416</v>
       </c>
       <c r="I62" s="0">
-        <v>79.752849478551937</v>
+        <v>28.066475081715083</v>
       </c>
       <c r="J62" s="0">
-        <v>4995.5383700178463</v>
+        <v>618.67935752528263</v>
       </c>
       <c r="K62" s="0">
-        <v>32.394415733423287</v>
+        <v>12.465036523837417</v>
       </c>
       <c r="L62" s="0">
-        <v>384.14634146341461</v>
+        <v>110.24184447431753</v>
       </c>
       <c r="M62" s="0">
-        <v>0.42540124861307593</v>
+        <v>0.63970912862684526</v>
       </c>
       <c r="N62" s="0">
-        <v>0.20661331153568988</v>
+        <v>0.18050037703309482</v>
       </c>
       <c r="O62" s="0">
-        <v>114.01309913664781</v>
+        <v>770.02163461538464</v>
       </c>
       <c r="P62" s="0">
-        <v>945.15957130098241</v>
+        <v>12.701923076923077</v>
       </c>
       <c r="Q62" s="0">
-        <v>18.900843621399176</v>
+        <v>10.356626506024094</v>
       </c>
       <c r="R62" s="0">
-        <v>18.900843621399176</v>
+        <v>10.356626506024094</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="B63" s="0">
         <v>62</v>
       </c>
       <c r="C63" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D63" s="0">
         <v>1.2195121951219512</v>
       </c>
       <c r="E63" s="0">
-        <v>42.68292682926829</v>
+        <v>85.365853658536579</v>
       </c>
       <c r="F63" s="0">
-        <v>36.585365853658537</v>
+        <v>75.609756097560975</v>
       </c>
       <c r="G63" s="0">
-        <v>1.1666666666666665</v>
+        <v>1.129032258064516</v>
       </c>
       <c r="H63" s="0">
-        <v>819</v>
+        <v>2351</v>
       </c>
       <c r="I63" s="0">
-        <v>39.380675178827254</v>
+        <v>66.721764272171839</v>
       </c>
       <c r="J63" s="0">
-        <v>1218.0249851279</v>
+        <v>3496.4306960142771</v>
       </c>
       <c r="K63" s="0">
-        <v>14.631980063606505</v>
+        <v>27.965906595275129</v>
       </c>
       <c r="L63" s="0">
-        <v>135.78209891484789</v>
+        <v>268.0113972497893</v>
       </c>
       <c r="M63" s="0">
-        <v>0.8301967437283102</v>
+        <v>0.61168560832080465</v>
       </c>
       <c r="N63" s="0">
-        <v>0.24442537220717736</v>
+        <v>0.22337133324299677</v>
       </c>
       <c r="O63" s="0">
-        <v>420.59462759462758</v>
+        <v>896.91578051892816</v>
       </c>
       <c r="P63" s="0">
-        <v>1005.0879120879121</v>
+        <v>50.116120799659718</v>
       </c>
       <c r="Q63" s="0">
-        <v>21.023547237076649</v>
+        <v>20.922265572642132</v>
       </c>
       <c r="R63" s="0">
-        <v>21.023547237076649</v>
+        <v>20.922265572642132</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="B64" s="0">
         <v>63</v>
       </c>
       <c r="C64" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D64" s="0">
         <v>1.2195121951219512</v>
       </c>
       <c r="E64" s="0">
-        <v>40.243902439024389</v>
+        <v>30.487804878048781</v>
       </c>
       <c r="F64" s="0">
-        <v>20.73170731707317</v>
+        <v>15.853658536585366</v>
       </c>
       <c r="G64" s="0">
-        <v>1.9411764705882353</v>
+        <v>1.9230769230769231</v>
       </c>
       <c r="H64" s="0">
-        <v>405</v>
+        <v>244</v>
       </c>
       <c r="I64" s="0">
-        <v>27.692917924611514</v>
+        <v>21.49493420514036</v>
       </c>
       <c r="J64" s="0">
-        <v>602.32004759071981</v>
+        <v>362.87923854848304</v>
       </c>
       <c r="K64" s="0">
-        <v>11.089570772334206</v>
+        <v>8.7155045654587546</v>
       </c>
       <c r="L64" s="0">
-        <v>104.30860245195217</v>
+        <v>80.716544915663761</v>
       </c>
       <c r="M64" s="0">
-        <v>0.69565983452411073</v>
+        <v>0.69991750988808188</v>
       </c>
       <c r="N64" s="0">
-        <v>0.19091677504673255</v>
+        <v>0.066654517021620854</v>
       </c>
       <c r="O64" s="0">
-        <v>684.70123456790122</v>
+        <v>10.885245901639344</v>
       </c>
       <c r="P64" s="0">
-        <v>1011.5283950617284</v>
+        <v>136.90163934426229</v>
       </c>
       <c r="Q64" s="0">
-        <v>9.6622222222222245</v>
+        <v>6.1115151515151513</v>
       </c>
       <c r="R64" s="0">
-        <v>9.6622222222222245</v>
+        <v>6.1115151515151513</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="B65" s="0">
         <v>64</v>
       </c>
       <c r="C65" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D65" s="0">
         <v>1.2195121951219512</v>
       </c>
       <c r="E65" s="0">
-        <v>20.73170731707317</v>
+        <v>48.780487804878049</v>
       </c>
       <c r="F65" s="0">
-        <v>14.634146341463413</v>
+        <v>39.024390243902438</v>
       </c>
       <c r="G65" s="0">
-        <v>1.4166666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="H65" s="0">
-        <v>161</v>
+        <v>894</v>
       </c>
       <c r="I65" s="0">
-        <v>17.460398239901533</v>
+        <v>41.14432732129238</v>
       </c>
       <c r="J65" s="0">
-        <v>239.44080904223676</v>
+        <v>1329.565734681737</v>
       </c>
       <c r="K65" s="0">
-        <v>6.9971440433826357</v>
+        <v>15.694528827087881</v>
       </c>
       <c r="L65" s="0">
-        <v>65.856293521915603</v>
+        <v>141.46076256246945</v>
       </c>
       <c r="M65" s="0">
-        <v>0.69376672572829023</v>
+        <v>0.83492542882816401</v>
       </c>
       <c r="N65" s="0">
-        <v>0.75849559971280123</v>
+        <v>0.25713134444553132</v>
       </c>
       <c r="O65" s="0">
-        <v>950.14285714285711</v>
+        <v>760.1633109619687</v>
       </c>
       <c r="P65" s="0">
-        <v>1010.3478260869565</v>
+        <v>413.70469798657717</v>
       </c>
       <c r="Q65" s="0">
-        <v>6.5389830508474569</v>
+        <v>25.83406317227746</v>
       </c>
       <c r="R65" s="0">
-        <v>6.5389830508474569</v>
+        <v>25.83406317227746</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="B66" s="0">
         <v>65</v>
       </c>
       <c r="C66" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D66" s="0">
         <v>1.2195121951219512</v>
       </c>
       <c r="E66" s="0">
-        <v>75.609756097560975</v>
+        <v>148.78048780487805</v>
       </c>
       <c r="F66" s="0">
-        <v>18.292682926829269</v>
+        <v>95.121951219512198</v>
       </c>
       <c r="G66" s="0">
-        <v>4.1333333333333329</v>
+        <v>1.5641025641025641</v>
       </c>
       <c r="H66" s="0">
-        <v>665</v>
+        <v>4376</v>
       </c>
       <c r="I66" s="0">
-        <v>35.485589932740353</v>
+        <v>91.029019238304528</v>
       </c>
       <c r="J66" s="0">
-        <v>988.99464604402147</v>
+        <v>6508.0309339678761</v>
       </c>
       <c r="K66" s="0">
-        <v>19.832217358631144</v>
+        <v>44.298378440084107</v>
       </c>
       <c r="L66" s="0">
-        <v>172.19252470234369</v>
+        <v>406.75751700486711</v>
       </c>
       <c r="M66" s="0">
-        <v>0.41915554622083945</v>
+        <v>0.49429736737948871</v>
       </c>
       <c r="N66" s="0">
-        <v>0.1890389662609066</v>
+        <v>0.19489859924667505</v>
       </c>
       <c r="O66" s="0">
-        <v>532.92932330827068</v>
+        <v>477.10169104204755</v>
       </c>
       <c r="P66" s="0">
-        <v>1012.593984962406</v>
+        <v>634.260054844607</v>
       </c>
       <c r="Q66" s="0">
-        <v>8.9241633728590273</v>
+        <v>36.146442786456724</v>
       </c>
       <c r="R66" s="0">
-        <v>8.9241633728590273</v>
+        <v>36.146442786456724</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B67" s="0">
         <v>66</v>
       </c>
       <c r="C67" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D67" s="0">
-        <v>2.3696682464454977</v>
+        <v>1.2195121951219512</v>
       </c>
       <c r="E67" s="0">
-        <v>71.090047393364927</v>
+        <v>510.97560975609753</v>
       </c>
       <c r="F67" s="0">
-        <v>35.545023696682463</v>
+        <v>237.80487804878049</v>
       </c>
       <c r="G67" s="0">
-        <v>2</v>
+        <v>2.1487179487179486</v>
       </c>
       <c r="H67" s="0">
-        <v>283</v>
+        <v>26651</v>
       </c>
       <c r="I67" s="0">
-        <v>44.98169599710792</v>
+        <v>224.64562318983079</v>
       </c>
       <c r="J67" s="0">
-        <v>1589.1377102940185</v>
+        <v>39635.633551457468</v>
       </c>
       <c r="K67" s="0">
-        <v>22.823374413027469</v>
+        <v>161.54704214394684</v>
       </c>
       <c r="L67" s="0">
-        <v>249.66278890973473</v>
+        <v>1486.596397238513</v>
       </c>
       <c r="M67" s="0">
-        <v>0.32037879416564191</v>
+        <v>0.22537696000992163</v>
       </c>
       <c r="N67" s="0">
-        <v>0.38870039579982807</v>
+        <v>0.15200235850520472</v>
       </c>
       <c r="O67" s="0">
-        <v>24.137809187279153</v>
+        <v>456.37004239990995</v>
       </c>
       <c r="P67" s="0">
-        <v>15.134275618374557</v>
+        <v>717.84308281115159</v>
       </c>
       <c r="Q67" s="0">
-        <v>8.0835805626598471</v>
+        <v>42.207024190642429</v>
       </c>
       <c r="R67" s="0">
-        <v>8.0835805626598471</v>
+        <v>42.207024190642429</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B68" s="0">
         <v>67</v>
       </c>
       <c r="C68" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D68" s="0">
-        <v>2.3696682464454977</v>
+        <v>1.2195121951219512</v>
       </c>
       <c r="E68" s="0">
-        <v>137.44075829383885</v>
+        <v>63.414634146341463</v>
       </c>
       <c r="F68" s="0">
-        <v>56.872037914691944</v>
+        <v>47.560975609756099</v>
       </c>
       <c r="G68" s="0">
-        <v>2.4166666666666665</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="H68" s="0">
-        <v>811</v>
+        <v>1456</v>
       </c>
       <c r="I68" s="0">
-        <v>76.147041652651396</v>
+        <v>52.507566905103005</v>
       </c>
       <c r="J68" s="0">
-        <v>4554.0306821499962</v>
+        <v>2165.3777513384889</v>
       </c>
       <c r="K68" s="0">
-        <v>35.711908643339676</v>
+        <v>19.413221866180439</v>
       </c>
       <c r="L68" s="0">
-        <v>371.63474797909345</v>
+        <v>179.1493452475508</v>
       </c>
       <c r="M68" s="0">
-        <v>0.41435557691562058</v>
+        <v>0.84783840221923523</v>
       </c>
       <c r="N68" s="0">
-        <v>0.22750100546203131</v>
+        <v>0.17876717246725349</v>
       </c>
       <c r="O68" s="0">
-        <v>299.07151664611592</v>
+        <v>284.69711538461536</v>
       </c>
       <c r="P68" s="0">
-        <v>15.586929716399506</v>
+        <v>638.84684065934061</v>
       </c>
       <c r="Q68" s="0">
-        <v>13.032982456140347</v>
+        <v>30.421896759554709</v>
       </c>
       <c r="R68" s="0">
-        <v>13.032982456140347</v>
+        <v>30.421896759554709</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B69" s="0">
         <v>68</v>
       </c>
       <c r="C69" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D69" s="0">
-        <v>2.3696682464454977</v>
+        <v>1.2195121951219512</v>
       </c>
       <c r="E69" s="0">
-        <v>63.981042654028435</v>
+        <v>490.2439024390244</v>
       </c>
       <c r="F69" s="0">
-        <v>40.284360189573462</v>
+        <v>263.41463414634148</v>
       </c>
       <c r="G69" s="0">
-        <v>1.588235294117647</v>
+        <v>1.8611111111111109</v>
       </c>
       <c r="H69" s="0">
-        <v>308</v>
+        <v>26350</v>
       </c>
       <c r="I69" s="0">
-        <v>46.926478704920889</v>
+        <v>223.37343188268005</v>
       </c>
       <c r="J69" s="0">
-        <v>1729.5209002493204</v>
+        <v>39187.983343248066</v>
       </c>
       <c r="K69" s="0">
-        <v>18.397732524913739</v>
+        <v>164.46649236428343</v>
       </c>
       <c r="L69" s="0">
-        <v>180.8411596504904</v>
+        <v>1738.6901454956035</v>
       </c>
       <c r="M69" s="0">
-        <v>0.66457058075666331</v>
+        <v>0.16289899070907207</v>
       </c>
       <c r="N69" s="0">
-        <v>0.27850078917058713</v>
+        <v>0.16512136343332579</v>
       </c>
       <c r="O69" s="0">
-        <v>501.76298701298703</v>
+        <v>398.85244781783683</v>
       </c>
       <c r="P69" s="0">
-        <v>12.191558441558442</v>
+        <v>908.00254269449715</v>
       </c>
       <c r="Q69" s="0">
-        <v>12.048372093023261</v>
+        <v>32.740568455082581</v>
       </c>
       <c r="R69" s="0">
-        <v>12.048372093023261</v>
+        <v>32.740568455082581</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B70" s="0">
         <v>69</v>
       </c>
       <c r="C70" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D70" s="0">
-        <v>2.3696682464454977</v>
+        <v>1.2195121951219512</v>
       </c>
       <c r="E70" s="0">
-        <v>343.60189573459718</v>
+        <v>95.121951219512198</v>
       </c>
       <c r="F70" s="0">
-        <v>142.18009478672985</v>
+        <v>92.682926829268297</v>
       </c>
       <c r="G70" s="0">
-        <v>2.416666666666667</v>
+        <v>1.0263157894736843</v>
       </c>
       <c r="H70" s="0">
-        <v>5394</v>
+        <v>3735</v>
       </c>
       <c r="I70" s="0">
-        <v>196.380372472348</v>
+        <v>84.098163121622591</v>
       </c>
       <c r="J70" s="0">
-        <v>30289.077064755958</v>
+        <v>5554.7293277810832</v>
       </c>
       <c r="K70" s="0">
-        <v>93.683521788764921</v>
+        <v>32.022011442863786</v>
       </c>
       <c r="L70" s="0">
-        <v>1098.2112590610734</v>
+        <v>349.84636513309044</v>
       </c>
       <c r="M70" s="0">
-        <v>0.31559064462296271</v>
+        <v>0.57031925371074588</v>
       </c>
       <c r="N70" s="0">
-        <v>0.21167666307740329</v>
+        <v>0.16802926478445515</v>
       </c>
       <c r="O70" s="0">
-        <v>605.16054875787916</v>
+        <v>113.79491298527444</v>
       </c>
       <c r="P70" s="0">
-        <v>29.494809047089358</v>
+        <v>945.57242302543511</v>
       </c>
       <c r="Q70" s="0">
-        <v>26.280000000000005</v>
+        <v>22.763779130887329</v>
       </c>
       <c r="R70" s="0">
-        <v>26.280000000000005</v>
+        <v>22.763779130887329</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B71" s="0">
         <v>70</v>
       </c>
       <c r="C71" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D71" s="0">
-        <v>2.3696682464454977</v>
+        <v>1.2195121951219512</v>
       </c>
       <c r="E71" s="0">
-        <v>56.872037914691944</v>
+        <v>41.463414634146339</v>
       </c>
       <c r="F71" s="0">
-        <v>40.284360189573462</v>
+        <v>36.585365853658537</v>
       </c>
       <c r="G71" s="0">
-        <v>1.4117647058823528</v>
+        <v>1.1333333333333333</v>
       </c>
       <c r="H71" s="0">
-        <v>189</v>
+        <v>780</v>
       </c>
       <c r="I71" s="0">
-        <v>36.759831368434199</v>
+        <v>38.431603779780005</v>
       </c>
       <c r="J71" s="0">
-        <v>1061.296916062083</v>
+        <v>1160.0237953599049</v>
       </c>
       <c r="K71" s="0">
-        <v>18.742729307233812</v>
+        <v>14.323847639666925</v>
       </c>
       <c r="L71" s="0">
-        <v>178.64558279177086</v>
+        <v>131.69772903362991</v>
       </c>
       <c r="M71" s="0">
-        <v>0.417890214608165</v>
+        <v>0.84046607809930662</v>
       </c>
       <c r="N71" s="0">
-        <v>0.40820022150569468</v>
+        <v>0.25083990964982217</v>
       </c>
       <c r="O71" s="0">
-        <v>744.02116402116405</v>
+        <v>420.54743589743589</v>
       </c>
       <c r="P71" s="0">
-        <v>46.767195767195766</v>
+        <v>1004.6474358974359</v>
       </c>
       <c r="Q71" s="0">
-        <v>8.5625829596412544</v>
+        <v>20.462328139321727</v>
       </c>
       <c r="R71" s="0">
-        <v>8.5625829596412544</v>
+        <v>20.462328139321727</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B72" s="0">
         <v>71</v>
       </c>
       <c r="C72" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D72" s="0">
-        <v>2.3696682464454977</v>
+        <v>1.2195121951219512</v>
       </c>
       <c r="E72" s="0">
-        <v>101.89573459715641</v>
+        <v>36.585365853658537</v>
       </c>
       <c r="F72" s="0">
-        <v>68.720379146919427</v>
+        <v>20.73170731707317</v>
       </c>
       <c r="G72" s="0">
-        <v>1.4827586206896555</v>
+        <v>1.7647058823529413</v>
       </c>
       <c r="H72" s="0">
-        <v>730</v>
+        <v>372</v>
       </c>
       <c r="I72" s="0">
-        <v>72.244375026164022</v>
+        <v>26.540718569388378</v>
       </c>
       <c r="J72" s="0">
-        <v>4099.1891466948182</v>
+        <v>553.24211778703159</v>
       </c>
       <c r="K72" s="0">
-        <v>27.894135115850403</v>
+        <v>10.324507337633099</v>
       </c>
       <c r="L72" s="0">
-        <v>307.47584164863201</v>
+        <v>98.265203361566378</v>
       </c>
       <c r="M72" s="0">
-        <v>0.54486112689387678</v>
+        <v>0.71998854123271838</v>
       </c>
       <c r="N72" s="0">
-        <v>0.21876015879819508</v>
+        <v>0.20259888717644292</v>
       </c>
       <c r="O72" s="0">
-        <v>291.60684931506847</v>
+        <v>684.76075268817203</v>
       </c>
       <c r="P72" s="0">
-        <v>112.25205479452055</v>
+        <v>1011.3763440860215</v>
       </c>
       <c r="Q72" s="0">
-        <v>20.143166332665327</v>
+        <v>8.5945355191256816</v>
       </c>
       <c r="R72" s="0">
-        <v>20.143166332665327</v>
+        <v>8.5945355191256816</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B73" s="0">
         <v>72</v>
       </c>
       <c r="C73" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D73" s="0">
-        <v>2.3696682464454977</v>
+        <v>1.2195121951219512</v>
       </c>
       <c r="E73" s="0">
-        <v>469.19431279620852</v>
+        <v>71.951219512195124</v>
       </c>
       <c r="F73" s="0">
-        <v>289.09952606635073</v>
+        <v>18.292682926829269</v>
       </c>
       <c r="G73" s="0">
-        <v>1.622950819672131</v>
+        <v>3.9333333333333336</v>
       </c>
       <c r="H73" s="0">
-        <v>9218</v>
+        <v>658</v>
       </c>
       <c r="I73" s="0">
-        <v>256.7207425431352</v>
+        <v>35.298329575836078</v>
       </c>
       <c r="J73" s="0">
-        <v>51762.08980031895</v>
+        <v>978.58417608566333</v>
       </c>
       <c r="K73" s="0">
-        <v>138.51044649959857</v>
+        <v>19.251433396981032</v>
       </c>
       <c r="L73" s="0">
-        <v>1604.7586422624618</v>
+        <v>165.97402463101514</v>
       </c>
       <c r="M73" s="0">
-        <v>0.25258189630178884</v>
+        <v>0.44640371749407293</v>
       </c>
       <c r="N73" s="0">
-        <v>0.20306475572010144</v>
+        <v>0.18784936080073492</v>
       </c>
       <c r="O73" s="0">
-        <v>642.8355391625081</v>
+        <v>531.77811550151978</v>
       </c>
       <c r="P73" s="0">
-        <v>171.62464742894338</v>
+        <v>1012.4407294832827</v>
       </c>
       <c r="Q73" s="0">
-        <v>42.034074074074056</v>
+        <v>9.0064710308502605</v>
       </c>
       <c r="R73" s="0">
-        <v>42.034074074074056</v>
+        <v>9.0064710308502605</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B74" s="0">
         <v>73</v>
       </c>
       <c r="C74" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D74" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E74" s="0">
-        <v>260.66350710900474</v>
+        <v>75.829383886255926</v>
       </c>
       <c r="F74" s="0">
-        <v>251.18483412322274</v>
+        <v>40.284360189573462</v>
       </c>
       <c r="G74" s="0">
-        <v>1.0377358490566038</v>
+        <v>1.8823529411764706</v>
       </c>
       <c r="H74" s="0">
-        <v>2893</v>
+        <v>374</v>
       </c>
       <c r="I74" s="0">
-        <v>143.81918560646764</v>
+        <v>51.710460990525817</v>
       </c>
       <c r="J74" s="0">
-        <v>16245.142741627546</v>
+        <v>2100.1325217313179</v>
       </c>
       <c r="K74" s="0">
-        <v>95.948420013175991</v>
+        <v>23.168787118225861</v>
       </c>
       <c r="L74" s="0">
-        <v>1008.2828452568521</v>
+        <v>229.85781990521326</v>
       </c>
       <c r="M74" s="0">
-        <v>0.20080227980679541</v>
+        <v>0.49950288125946757</v>
       </c>
       <c r="N74" s="0">
-        <v>0.29050016317911009</v>
+        <v>0.31152887075089947</v>
       </c>
       <c r="O74" s="0">
-        <v>820.10197027307288</v>
+        <v>24.951871657754012</v>
       </c>
       <c r="P74" s="0">
-        <v>166.78154165226408</v>
+        <v>15.12566844919786</v>
       </c>
       <c r="Q74" s="0">
-        <v>20.253250000000005</v>
+        <v>10.14840579710145</v>
       </c>
       <c r="R74" s="0">
-        <v>20.253250000000005</v>
+        <v>10.14840579710145</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B75" s="0">
         <v>74</v>
       </c>
       <c r="C75" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D75" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E75" s="0">
-        <v>244.07582938388626</v>
+        <v>165.87677725118485</v>
       </c>
       <c r="F75" s="0">
-        <v>154.02843601895734</v>
+        <v>56.872037914691944</v>
       </c>
       <c r="G75" s="0">
-        <v>1.5846153846153848</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="H75" s="0">
-        <v>3278</v>
+        <v>955</v>
       </c>
       <c r="I75" s="0">
-        <v>153.09009162274947</v>
+        <v>82.631244591410208</v>
       </c>
       <c r="J75" s="0">
-        <v>18407.043866939195</v>
+        <v>5362.6378562925356</v>
       </c>
       <c r="K75" s="0">
-        <v>67.808437407364252</v>
+        <v>43.824057605288196</v>
       </c>
       <c r="L75" s="0">
-        <v>741.35227533340162</v>
+        <v>434.26799900476436</v>
       </c>
       <c r="M75" s="0">
-        <v>0.42086679402598842</v>
+        <v>0.35733263219834094</v>
       </c>
       <c r="N75" s="0">
-        <v>0.17425322125671394</v>
+        <v>0.19549243447058601</v>
       </c>
       <c r="O75" s="0">
-        <v>233.45485051860891</v>
+        <v>302.89633507853404</v>
       </c>
       <c r="P75" s="0">
-        <v>176.36241610738256</v>
+        <v>15.560209424083769</v>
       </c>
       <c r="Q75" s="0">
-        <v>23.371006711409393</v>
+        <v>14.190533333333324</v>
       </c>
       <c r="R75" s="0">
-        <v>23.371006711409393</v>
+        <v>14.190533333333324</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B76" s="0">
         <v>75</v>
       </c>
       <c r="C76" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D76" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E76" s="0">
-        <v>161.13744075829385</v>
+        <v>63.981042654028435</v>
       </c>
       <c r="F76" s="0">
-        <v>127.96208530805687</v>
+        <v>40.284360189573462</v>
       </c>
       <c r="G76" s="0">
-        <v>1.2592592592592593</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="H76" s="0">
-        <v>1624</v>
+        <v>331</v>
       </c>
       <c r="I76" s="0">
-        <v>107.7545508051081</v>
+        <v>48.647060735476913</v>
       </c>
       <c r="J76" s="0">
-        <v>9119.2920194964172</v>
+        <v>1858.6734350081983</v>
       </c>
       <c r="K76" s="0">
-        <v>50.024767323166031</v>
+        <v>18.801328381659356</v>
       </c>
       <c r="L76" s="0">
-        <v>495.46499663428278</v>
+        <v>179.72088182522273</v>
       </c>
       <c r="M76" s="0">
-        <v>0.4668152452981455</v>
+        <v>0.72312915911584141</v>
       </c>
       <c r="N76" s="0">
-        <v>0.25539052899746939</v>
+        <v>0.2298239426181912</v>
       </c>
       <c r="O76" s="0">
-        <v>738.04002463054189</v>
+        <v>502.22658610271901</v>
       </c>
       <c r="P76" s="0">
-        <v>194.33374384236453</v>
+        <v>12.495468277945619</v>
       </c>
       <c r="Q76" s="0">
-        <v>34.334476190476188</v>
+        <v>13.277808219178089</v>
       </c>
       <c r="R76" s="0">
-        <v>34.334476190476188</v>
+        <v>13.277808219178089</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B77" s="0">
         <v>76</v>
       </c>
       <c r="C77" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D77" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E77" s="0">
-        <v>104.26540284360189</v>
+        <v>343.60189573459718</v>
       </c>
       <c r="F77" s="0">
-        <v>47.393364928909953</v>
+        <v>144.54976303317537</v>
       </c>
       <c r="G77" s="0">
-        <v>2.1999999999999997</v>
+        <v>2.3770491803278686</v>
       </c>
       <c r="H77" s="0">
-        <v>535</v>
+        <v>5656</v>
       </c>
       <c r="I77" s="0">
-        <v>61.847122631187901</v>
+        <v>201.09316464491269</v>
       </c>
       <c r="J77" s="0">
-        <v>3004.2002650434624</v>
+        <v>31760.292895487521</v>
       </c>
       <c r="K77" s="0">
-        <v>27.205527545810863</v>
+        <v>95.041546965426122</v>
       </c>
       <c r="L77" s="0">
-        <v>274.68369222643878</v>
+        <v>1046.6354079133014</v>
       </c>
       <c r="M77" s="0">
-        <v>0.50034894828542975</v>
+        <v>0.36433720054714042</v>
       </c>
       <c r="N77" s="0">
-        <v>0.29812466317222935</v>
+        <v>0.17006079176184968</v>
       </c>
       <c r="O77" s="0">
-        <v>12.65981308411215</v>
+        <v>606.08521923620935</v>
       </c>
       <c r="P77" s="0">
-        <v>200.73271028037382</v>
+        <v>30.035360678925034</v>
       </c>
       <c r="Q77" s="0">
-        <v>14.162898550724638</v>
+        <v>32.468346900438327</v>
       </c>
       <c r="R77" s="0">
-        <v>14.162898550724638</v>
+        <v>32.468346900438327</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B78" s="0">
         <v>77</v>
       </c>
       <c r="C78" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D78" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E78" s="0">
-        <v>319.90521327014221</v>
+        <v>61.611374407582943</v>
       </c>
       <c r="F78" s="0">
-        <v>213.27014218009478</v>
+        <v>52.132701421800945</v>
       </c>
       <c r="G78" s="0">
-        <v>1.5000000000000002</v>
+        <v>1.1818181818181819</v>
       </c>
       <c r="H78" s="0">
-        <v>7039</v>
+        <v>272</v>
       </c>
       <c r="I78" s="0">
-        <v>224.33554491394619</v>
+        <v>44.098829305035814</v>
       </c>
       <c r="J78" s="0">
-        <v>39526.290963814827</v>
+        <v>1527.3691067136856</v>
       </c>
       <c r="K78" s="0">
-        <v>90.632779028212056</v>
+        <v>20.586135263887925</v>
       </c>
       <c r="L78" s="0">
-        <v>925.31552812964799</v>
+        <v>207.39672007796275</v>
       </c>
       <c r="M78" s="0">
-        <v>0.58011784722652471</v>
+        <v>0.4462210958306117</v>
       </c>
       <c r="N78" s="0">
-        <v>0.22397241898860309</v>
+        <v>0.34172336465777026</v>
       </c>
       <c r="O78" s="0">
-        <v>458.56016479613584</v>
+        <v>744.32352941176475</v>
       </c>
       <c r="P78" s="0">
-        <v>255.4737888904674</v>
+        <v>46.724264705882355</v>
       </c>
       <c r="Q78" s="0">
-        <v>65.625504057213604</v>
+        <v>13.344878048780483</v>
       </c>
       <c r="R78" s="0">
-        <v>65.625504057213604</v>
+        <v>13.344878048780483</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B79" s="0">
         <v>78</v>
       </c>
       <c r="C79" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D79" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E79" s="0">
-        <v>42.654028436018962</v>
+        <v>104.26540284360189</v>
       </c>
       <c r="F79" s="0">
-        <v>40.284360189573462</v>
+        <v>68.720379146919427</v>
       </c>
       <c r="G79" s="0">
-        <v>1.0588235294117647</v>
+        <v>1.5172413793103448</v>
       </c>
       <c r="H79" s="0">
-        <v>202</v>
+        <v>808</v>
       </c>
       <c r="I79" s="0">
-        <v>38.003036000386089</v>
+        <v>76.006072000772178</v>
       </c>
       <c r="J79" s="0">
-        <v>1134.29617483884</v>
+        <v>4537.18469935536</v>
       </c>
       <c r="K79" s="0">
-        <v>14.950088587193733</v>
+        <v>28.898445252090262</v>
       </c>
       <c r="L79" s="0">
-        <v>141.79985224200419</v>
+        <v>288.87208161314504</v>
       </c>
       <c r="M79" s="0">
-        <v>0.70889967122837239</v>
+        <v>0.68325871672519944</v>
       </c>
       <c r="N79" s="0">
-        <v>0.36800117474734828</v>
+        <v>0.1693022184812715</v>
       </c>
       <c r="O79" s="0">
-        <v>269.9009900990099</v>
+        <v>291.92326732673268</v>
       </c>
       <c r="P79" s="0">
-        <v>260.74752475247527</v>
+        <v>112.51732673267327</v>
       </c>
       <c r="Q79" s="0">
-        <v>15.15126436781609</v>
+        <v>23.040485829959522</v>
       </c>
       <c r="R79" s="0">
-        <v>15.15126436781609</v>
+        <v>23.040485829959522</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B80" s="0">
         <v>79</v>
       </c>
       <c r="C80" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D80" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E80" s="0">
-        <v>578.19905213270147</v>
+        <v>471.56398104265406</v>
       </c>
       <c r="F80" s="0">
-        <v>469.19431279620852</v>
+        <v>291.46919431279622</v>
       </c>
       <c r="G80" s="0">
-        <v>1.2323232323232325</v>
+        <v>1.6178861788617886</v>
       </c>
       <c r="H80" s="0">
-        <v>23720</v>
+        <v>9578</v>
       </c>
       <c r="I80" s="0">
-        <v>411.81290376718414</v>
+        <v>261.68572033564578</v>
       </c>
       <c r="J80" s="0">
-        <v>133195.57062959054</v>
+        <v>53783.607735675301</v>
       </c>
       <c r="K80" s="0">
-        <v>183.73771953749318</v>
+        <v>138.97714546691338</v>
       </c>
       <c r="L80" s="0">
-        <v>2575.8982936141883</v>
+        <v>1431.2796208530806</v>
       </c>
       <c r="M80" s="0">
-        <v>0.2522564176791468</v>
+        <v>0.32992165295472831</v>
       </c>
       <c r="N80" s="0">
-        <v>0.14520336970499356</v>
+        <v>0.16693079906391539</v>
       </c>
       <c r="O80" s="0">
-        <v>290.63360033726815</v>
+        <v>644.07016078513254</v>
       </c>
       <c r="P80" s="0">
-        <v>404.46471332209109</v>
+        <v>170.39131342660264</v>
       </c>
       <c r="Q80" s="0">
-        <v>58.385286195286191</v>
+        <v>47.805487462949614</v>
       </c>
       <c r="R80" s="0">
-        <v>58.385286195286191</v>
+        <v>47.805487462949614</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B81" s="0">
         <v>80</v>
       </c>
       <c r="C81" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D81" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E81" s="0">
-        <v>87.677725118483409</v>
+        <v>267.77251184834125</v>
       </c>
       <c r="F81" s="0">
-        <v>56.872037914691944</v>
+        <v>251.18483412322274</v>
       </c>
       <c r="G81" s="0">
-        <v>1.5416666666666665</v>
+        <v>1.0660377358490567</v>
       </c>
       <c r="H81" s="0">
-        <v>520</v>
+        <v>3250</v>
       </c>
       <c r="I81" s="0">
-        <v>60.97394296285011</v>
+        <v>152.43485740712529</v>
       </c>
       <c r="J81" s="0">
-        <v>2919.9703510702816</v>
+        <v>18249.814694189259</v>
       </c>
       <c r="K81" s="0">
-        <v>26.292331177014127</v>
+        <v>96.664366870300398</v>
       </c>
       <c r="L81" s="0">
-        <v>291.46919431279622</v>
+        <v>933.68370527313846</v>
       </c>
       <c r="M81" s="0">
-        <v>0.43191967211757343</v>
+        <v>0.26306844883668601</v>
       </c>
       <c r="N81" s="0">
-        <v>0.36081230712308493</v>
+        <v>0.2322729665300165</v>
       </c>
       <c r="O81" s="0">
-        <v>861.65384615384619</v>
+        <v>822.19046153846159</v>
       </c>
       <c r="P81" s="0">
-        <v>299.65192307692308</v>
+        <v>164.62984615384616</v>
       </c>
       <c r="Q81" s="0">
-        <v>12.148505747126437</v>
+        <v>29.402456797834695</v>
       </c>
       <c r="R81" s="0">
-        <v>12.148505747126437</v>
+        <v>29.402456797834695</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B82" s="0">
         <v>81</v>
       </c>
       <c r="C82" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D82" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E82" s="0">
-        <v>149.28909952606637</v>
+        <v>244.07582938388626</v>
       </c>
       <c r="F82" s="0">
-        <v>92.417061611374407</v>
+        <v>156.39810426540285</v>
       </c>
       <c r="G82" s="0">
-        <v>1.6153846153846156</v>
+        <v>1.5606060606060606</v>
       </c>
       <c r="H82" s="0">
-        <v>1472</v>
+        <v>3394</v>
       </c>
       <c r="I82" s="0">
-        <v>102.58798824276795</v>
+        <v>155.77527526217199</v>
       </c>
       <c r="J82" s="0">
-        <v>8265.7622245681814</v>
+        <v>19058.421868331799</v>
       </c>
       <c r="K82" s="0">
-        <v>43.315804972979151</v>
+        <v>69.020903164740076</v>
       </c>
       <c r="L82" s="0">
-        <v>427.80600434949139</v>
+        <v>727.40226689784549</v>
       </c>
       <c r="M82" s="0">
-        <v>0.56754332565488907</v>
+        <v>0.45263434027470811</v>
       </c>
       <c r="N82" s="0">
-        <v>0.2003796815972719</v>
+        <v>0.14119113904115746</v>
       </c>
       <c r="O82" s="0">
-        <v>161.65489130434781</v>
+        <v>233.50058927519152</v>
       </c>
       <c r="P82" s="0">
-        <v>334.6447010869565</v>
+        <v>176.82086034177962</v>
       </c>
       <c r="Q82" s="0">
-        <v>34.854452773613197</v>
+        <v>32.316235294117661</v>
       </c>
       <c r="R82" s="0">
-        <v>34.854452773613197</v>
+        <v>32.316235294117661</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B83" s="0">
         <v>82</v>
       </c>
       <c r="C83" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D83" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E83" s="0">
-        <v>66.350710900473928</v>
+        <v>161.13744075829385</v>
       </c>
       <c r="F83" s="0">
-        <v>52.132701421800945</v>
+        <v>127.96208530805687</v>
       </c>
       <c r="G83" s="0">
-        <v>1.2727272727272727</v>
+        <v>1.2592592592592593</v>
       </c>
       <c r="H83" s="0">
-        <v>308</v>
+        <v>1674</v>
       </c>
       <c r="I83" s="0">
-        <v>46.926478704920889</v>
+        <v>109.4007590327642</v>
       </c>
       <c r="J83" s="0">
-        <v>1729.5209002493204</v>
+        <v>9400.0583994070221</v>
       </c>
       <c r="K83" s="0">
-        <v>20.271977788647614</v>
+        <v>50.81622625922008</v>
       </c>
       <c r="L83" s="0">
-        <v>210.66441872292799</v>
+        <v>491.49488520630081</v>
       </c>
       <c r="M83" s="0">
-        <v>0.48972615582199375</v>
+        <v>0.48899273906298407</v>
       </c>
       <c r="N83" s="0">
-        <v>0.33316075679760204</v>
+        <v>0.2234916699413371</v>
       </c>
       <c r="O83" s="0">
-        <v>750.83766233766232</v>
+        <v>737.51194743130225</v>
       </c>
       <c r="P83" s="0">
-        <v>327.97727272727275</v>
+        <v>194.415770609319</v>
       </c>
       <c r="Q83" s="0">
-        <v>8.2604935370152752</v>
+        <v>40.731078486730659</v>
       </c>
       <c r="R83" s="0">
-        <v>8.2604935370152752</v>
+        <v>40.731078486730659</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B84" s="0">
         <v>83</v>
       </c>
       <c r="C84" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D84" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E84" s="0">
-        <v>348.34123222748815</v>
+        <v>106.63507109004739</v>
       </c>
       <c r="F84" s="0">
-        <v>343.60189573459718</v>
+        <v>49.763033175355453</v>
       </c>
       <c r="G84" s="0">
-        <v>1.0137931034482759</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="H84" s="0">
-        <v>8467</v>
+        <v>576</v>
       </c>
       <c r="I84" s="0">
-        <v>246.04094604095732</v>
+        <v>64.173222773204515</v>
       </c>
       <c r="J84" s="0">
-        <v>47544.978774061681</v>
+        <v>3234.4286965701576</v>
       </c>
       <c r="K84" s="0">
-        <v>119.46780325242155</v>
+        <v>27.582552572069623</v>
       </c>
       <c r="L84" s="0">
-        <v>1788.8171030649632</v>
+        <v>273.41439786662937</v>
       </c>
       <c r="M84" s="0">
-        <v>0.18671647713626083</v>
+        <v>0.54370669952708406</v>
       </c>
       <c r="N84" s="0">
-        <v>0.27117953737163497</v>
+        <v>0.24113264879727658</v>
       </c>
       <c r="O84" s="0">
-        <v>803.58285106885558</v>
+        <v>13.111111111111111</v>
       </c>
       <c r="P84" s="0">
-        <v>403.98015826148577</v>
+        <v>200.42708333333334</v>
       </c>
       <c r="Q84" s="0">
-        <v>32.129608713190798</v>
+        <v>16.333743589743602</v>
       </c>
       <c r="R84" s="0">
-        <v>32.129608713190798</v>
+        <v>16.333743589743602</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B85" s="0">
         <v>84</v>
       </c>
       <c r="C85" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D85" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E85" s="0">
-        <v>421.80094786729859</v>
+        <v>322.2748815165877</v>
       </c>
       <c r="F85" s="0">
-        <v>241.70616113744077</v>
+        <v>213.27014218009478</v>
       </c>
       <c r="G85" s="0">
-        <v>1.7450980392156863</v>
+        <v>1.5111111111111113</v>
       </c>
       <c r="H85" s="0">
-        <v>9747</v>
+        <v>7059</v>
       </c>
       <c r="I85" s="0">
-        <v>263.98429553048754</v>
+        <v>224.65402256565739</v>
       </c>
       <c r="J85" s="0">
-        <v>54732.598099773139</v>
+        <v>39638.597515779067</v>
       </c>
       <c r="K85" s="0">
-        <v>119.77699790615863</v>
+        <v>91.137770627048511</v>
       </c>
       <c r="L85" s="0">
-        <v>1179.8529315789751</v>
+        <v>939.47055626967312</v>
       </c>
       <c r="M85" s="0">
-        <v>0.4940833014092762</v>
+        <v>0.56436724097955759</v>
       </c>
       <c r="N85" s="0">
-        <v>0.19639467986827533</v>
+        <v>0.20066797611873685</v>
       </c>
       <c r="O85" s="0">
-        <v>491.94942033446188</v>
+        <v>458.86754497804219</v>
       </c>
       <c r="P85" s="0">
-        <v>383.444341848774</v>
+        <v>255.25782688766114</v>
       </c>
       <c r="Q85" s="0">
-        <v>58.291509492685947</v>
+        <v>69.257361654851351</v>
       </c>
       <c r="R85" s="0">
-        <v>58.291509492685947</v>
+        <v>69.257361654851351</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B86" s="0">
         <v>85</v>
       </c>
       <c r="C86" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D86" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E86" s="0">
-        <v>158.76777251184834</v>
+        <v>42.654028436018962</v>
       </c>
       <c r="F86" s="0">
-        <v>151.65876777251185</v>
+        <v>42.654028436018962</v>
       </c>
       <c r="G86" s="0">
-        <v>1.046875</v>
+        <v>1</v>
       </c>
       <c r="H86" s="0">
-        <v>1879</v>
+        <v>218</v>
       </c>
       <c r="I86" s="0">
-        <v>115.90602138653384</v>
+        <v>39.479428310471043</v>
       </c>
       <c r="J86" s="0">
-        <v>10551.200557040498</v>
+        <v>1224.1414164102334</v>
       </c>
       <c r="K86" s="0">
-        <v>50.869794190133248</v>
+        <v>15.418320068985906</v>
       </c>
       <c r="L86" s="0">
-        <v>562.73480326302536</v>
+        <v>143.54233436830287</v>
       </c>
       <c r="M86" s="0">
-        <v>0.41870118585481553</v>
+        <v>0.74658875832643168</v>
       </c>
       <c r="N86" s="0">
-        <v>0.27677044854756927</v>
+        <v>0.33422597289752609</v>
       </c>
       <c r="O86" s="0">
-        <v>720.17935071846728</v>
+        <v>269.90366972477062</v>
       </c>
       <c r="P86" s="0">
-        <v>533.77541245343264</v>
+        <v>260.54587155963304</v>
       </c>
       <c r="Q86" s="0">
-        <v>23.032807570977923</v>
+        <v>16.951428571428568</v>
       </c>
       <c r="R86" s="0">
-        <v>23.032807570977923</v>
+        <v>16.951428571428568</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B87" s="0">
         <v>86</v>
       </c>
       <c r="C87" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D87" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E87" s="0">
-        <v>1523.6966824644551</v>
+        <v>582.93838862559244</v>
       </c>
       <c r="F87" s="0">
-        <v>1225.1184834123223</v>
+        <v>466.82464454976304</v>
       </c>
       <c r="G87" s="0">
-        <v>1.2437137330754353</v>
+        <v>1.248730964467005</v>
       </c>
       <c r="H87" s="0">
-        <v>176199</v>
+        <v>23740</v>
       </c>
       <c r="I87" s="0">
-        <v>1122.3913938544695</v>
+        <v>411.98648139502563</v>
       </c>
       <c r="J87" s="0">
-        <v>989415.10747737018</v>
+        <v>133307.87718155477</v>
       </c>
       <c r="K87" s="0">
-        <v>516.84962738619254</v>
+        <v>183.96839770189766</v>
       </c>
       <c r="L87" s="0">
-        <v>11530.805687203792</v>
+        <v>2560.8796624519778</v>
       </c>
       <c r="M87" s="0">
-        <v>0.093512376485515539</v>
+        <v>0.25543907592432236</v>
       </c>
       <c r="N87" s="0">
-        <v>0.11936462109508705</v>
+        <v>0.11979363162507294</v>
       </c>
       <c r="O87" s="0">
-        <v>320.57784096391015</v>
+        <v>290.61482729570344</v>
       </c>
       <c r="P87" s="0">
-        <v>786.50847053615519</v>
+        <v>404.22426284751475</v>
       </c>
       <c r="Q87" s="0">
-        <v>92.930365811965828</v>
+        <v>62.94685922771788</v>
       </c>
       <c r="R87" s="0">
-        <v>92.930365811965828</v>
+        <v>62.94685922771788</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B88" s="0">
         <v>87</v>
       </c>
       <c r="C88" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D88" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E88" s="0">
-        <v>73.459715639810426</v>
+        <v>94.786729857819907</v>
       </c>
       <c r="F88" s="0">
-        <v>45.023696682464454</v>
+        <v>82.938388625592424</v>
       </c>
       <c r="G88" s="0">
-        <v>1.631578947368421</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="H88" s="0">
-        <v>321</v>
+        <v>733</v>
       </c>
       <c r="I88" s="0">
-        <v>47.906575192287711</v>
+        <v>72.392670170294792</v>
       </c>
       <c r="J88" s="0">
-        <v>1802.5201590260776</v>
+        <v>4116.0351294894544</v>
       </c>
       <c r="K88" s="0">
-        <v>21.640296706413384</v>
+        <v>30.941407005361647</v>
       </c>
       <c r="L88" s="0">
-        <v>201.87568620326951</v>
+        <v>320.76551951984999</v>
       </c>
       <c r="M88" s="0">
-        <v>0.55580437717809406</v>
+        <v>0.50270543531600498</v>
       </c>
       <c r="N88" s="0">
-        <v>0.25659856126541181</v>
+        <v>0.2925935103502128</v>
       </c>
       <c r="O88" s="0">
-        <v>155.89719626168224</v>
+        <v>863.83765347885401</v>
       </c>
       <c r="P88" s="0">
-        <v>679.37071651090343</v>
+        <v>298.5020463847203</v>
       </c>
       <c r="Q88" s="0">
-        <v>18.005322128851542</v>
+        <v>19.890821256038659</v>
       </c>
       <c r="R88" s="0">
-        <v>18.005322128851542</v>
+        <v>19.890821256038659</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B89" s="0">
         <v>88</v>
       </c>
       <c r="C89" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D89" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E89" s="0">
-        <v>274.88151658767771</v>
+        <v>151.65876777251185</v>
       </c>
       <c r="F89" s="0">
-        <v>149.28909952606637</v>
+        <v>92.417061611374407</v>
       </c>
       <c r="G89" s="0">
-        <v>1.8412698412698409</v>
+        <v>1.641025641025641</v>
       </c>
       <c r="H89" s="0">
-        <v>4743</v>
+        <v>1513</v>
       </c>
       <c r="I89" s="0">
-        <v>184.14891768532695</v>
+        <v>104.00688090237317</v>
       </c>
       <c r="J89" s="0">
-        <v>26633.498798319895</v>
+        <v>8495.9906560948766</v>
       </c>
       <c r="K89" s="0">
-        <v>83.454393924946928</v>
+        <v>44.029187672574913</v>
       </c>
       <c r="L89" s="0">
-        <v>837.03105255594176</v>
+        <v>438.81257256565328</v>
       </c>
       <c r="M89" s="0">
-        <v>0.47769967615150688</v>
+        <v>0.5544543124963861</v>
       </c>
       <c r="N89" s="0">
-        <v>0.20971820389736676</v>
+        <v>0.17017826503877254</v>
       </c>
       <c r="O89" s="0">
-        <v>683.47944339025935</v>
+        <v>161.79444811632519</v>
       </c>
       <c r="P89" s="0">
-        <v>733.90786422095721</v>
+        <v>334.23397224058164</v>
       </c>
       <c r="Q89" s="0">
-        <v>45.412938475665747</v>
+        <v>30.850999999999999</v>
       </c>
       <c r="R89" s="0">
-        <v>45.412938475665747</v>
+        <v>30.850999999999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B90" s="0">
         <v>89</v>
       </c>
       <c r="C90" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D90" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E90" s="0">
-        <v>30.805687203791472</v>
+        <v>71.090047393364927</v>
       </c>
       <c r="F90" s="0">
-        <v>18.957345971563981</v>
+        <v>56.872037914691944</v>
       </c>
       <c r="G90" s="0">
-        <v>1.625</v>
+        <v>1.25</v>
       </c>
       <c r="H90" s="0">
-        <v>90</v>
+        <v>370</v>
       </c>
       <c r="I90" s="0">
-        <v>25.366693594589165</v>
+        <v>51.433191104907607</v>
       </c>
       <c r="J90" s="0">
-        <v>505.37948383908719</v>
+        <v>2077.6712113384697</v>
       </c>
       <c r="K90" s="0">
-        <v>9.7759962520597643</v>
+        <v>21.796726390591807</v>
       </c>
       <c r="L90" s="0">
-        <v>93.579719176242705</v>
+        <v>220.50934489564884</v>
       </c>
       <c r="M90" s="0">
-        <v>0.72521035463629691</v>
+        <v>0.53694856754909681</v>
       </c>
       <c r="N90" s="0">
-        <v>0.51892177656870786</v>
+        <v>0.28209428578461049</v>
       </c>
       <c r="O90" s="0">
-        <v>740.67777777777781</v>
+        <v>751.29999999999995</v>
       </c>
       <c r="P90" s="0">
-        <v>706.10000000000002</v>
+        <v>327.72972972972974</v>
       </c>
       <c r="Q90" s="0">
-        <v>22.648555815768933</v>
+        <v>8.2599183673469394</v>
       </c>
       <c r="R90" s="0">
-        <v>22.648555815768933</v>
+        <v>8.2599183673469394</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B91" s="0">
         <v>90</v>
       </c>
       <c r="C91" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D91" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E91" s="0">
-        <v>523.69668246445497</v>
+        <v>421.80094786729859</v>
       </c>
       <c r="F91" s="0">
-        <v>151.65876777251185</v>
+        <v>241.70616113744077</v>
       </c>
       <c r="G91" s="0">
-        <v>3.453125</v>
+        <v>1.7450980392156863</v>
       </c>
       <c r="H91" s="0">
-        <v>9324</v>
+        <v>9651</v>
       </c>
       <c r="I91" s="0">
-        <v>258.19257020738507</v>
+        <v>262.68106364920538</v>
       </c>
       <c r="J91" s="0">
-        <v>52357.314525729431</v>
+        <v>54193.526650344778</v>
       </c>
       <c r="K91" s="0">
-        <v>133.87006983441731</v>
+        <v>119.68832329473169</v>
       </c>
       <c r="L91" s="0">
-        <v>1404.5850554199826</v>
+        <v>1181.5084953134119</v>
       </c>
       <c r="M91" s="0">
-        <v>0.33349639247955654</v>
+        <v>0.48784693457425388</v>
       </c>
       <c r="N91" s="0">
-        <v>0.32039581935246647</v>
+        <v>0.17602942474864453</v>
       </c>
       <c r="O91" s="0">
-        <v>848.66441441441441</v>
+        <v>492.2427727696612</v>
       </c>
       <c r="P91" s="0">
-        <v>891.95699270699265</v>
+        <v>383.13397575380787</v>
       </c>
       <c r="Q91" s="0">
-        <v>31.874031413612574</v>
+        <v>57.488678571428565</v>
       </c>
       <c r="R91" s="0">
-        <v>31.874031413612574</v>
+        <v>57.488678571428565</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B92" s="0">
         <v>91</v>
       </c>
       <c r="C92" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D92" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E92" s="0">
-        <v>106.63507109004739</v>
+        <v>156.39810426540285</v>
       </c>
       <c r="F92" s="0">
-        <v>85.308056872037923</v>
+        <v>151.65876777251185</v>
       </c>
       <c r="G92" s="0">
-        <v>1.2499999999999998</v>
+        <v>1.03125</v>
       </c>
       <c r="H92" s="0">
-        <v>1019</v>
+        <v>1821</v>
       </c>
       <c r="I92" s="0">
-        <v>85.355144195446016</v>
+        <v>114.10313614745139</v>
       </c>
       <c r="J92" s="0">
-        <v>5722.0188225781094</v>
+        <v>10225.511556344198</v>
       </c>
       <c r="K92" s="0">
-        <v>33.482542879927955</v>
+        <v>51.482040109986904</v>
       </c>
       <c r="L92" s="0">
-        <v>328.46447432348788</v>
+        <v>564.72464954238092</v>
       </c>
       <c r="M92" s="0">
-        <v>0.66647265777324693</v>
+        <v>0.40292240611349317</v>
       </c>
       <c r="N92" s="0">
-        <v>0.095024065595069471</v>
+        <v>0.26650503235668171</v>
       </c>
       <c r="O92" s="0">
-        <v>550.47791952895</v>
+        <v>719.92037342119716</v>
       </c>
       <c r="P92" s="0">
-        <v>850.84200196270854</v>
+        <v>533.58045030203186</v>
       </c>
       <c r="Q92" s="0">
-        <v>25.076788321167882</v>
+        <v>23.066111111111113</v>
       </c>
       <c r="R92" s="0">
-        <v>25.076788321167882</v>
+        <v>23.066111111111113</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B93" s="0">
         <v>92</v>
       </c>
       <c r="C93" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D93" s="0">
         <v>2.3696682464454977</v>
       </c>
       <c r="E93" s="0">
-        <v>75.829383886255926</v>
+        <v>71.090047393364927</v>
       </c>
       <c r="F93" s="0">
-        <v>33.175355450236964</v>
+        <v>45.023696682464454</v>
       </c>
       <c r="G93" s="0">
-        <v>2.285714285714286</v>
+        <v>1.5789473684210527</v>
       </c>
       <c r="H93" s="0">
-        <v>218</v>
+        <v>337</v>
       </c>
       <c r="I93" s="0">
-        <v>39.479428310471043</v>
+        <v>49.085990477215567</v>
       </c>
       <c r="J93" s="0">
-        <v>1224.1414164102334</v>
+        <v>1892.3654005974709</v>
       </c>
       <c r="K93" s="0">
-        <v>21.623650162347058</v>
+        <v>21.324019815777525</v>
       </c>
       <c r="L93" s="0">
-        <v>213.42560750925315</v>
+        <v>195.7203900491925</v>
       </c>
       <c r="M93" s="0">
-        <v>0.33771348547570146</v>
+        <v>0.62078714876683172</v>
       </c>
       <c r="N93" s="0">
-        <v>0.11456436067565998</v>
+        <v>0.21787964328692819</v>
       </c>
       <c r="O93" s="0">
-        <v>490.64220183486236</v>
+        <v>155.88130563798219</v>
       </c>
       <c r="P93" s="0">
-        <v>865.2293577981651</v>
+        <v>679.47774480712167</v>
       </c>
       <c r="Q93" s="0">
-        <v>7.7982022471910106</v>
+        <v>22.779351032448382</v>
       </c>
       <c r="R93" s="0">
-        <v>7.7982022471910106</v>
+        <v>22.779351032448382</v>
       </c>
     </row>
     <row r="94">

--- a/processed_data/small_validation_data/kmeans_results.xlsx
+++ b/processed_data/small_validation_data/kmeans_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="265">
   <si>
     <t>fname</t>
   </si>
@@ -655,6 +655,81 @@
   </si>
   <si>
     <t>dp_pcm</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0024.tif</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0025.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0008.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0012.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0013.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0014.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0015.tif</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>img_id</t>
+  </si>
+  <si>
+    <t>pixsize</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>aspect_ratio</t>
+  </si>
+  <si>
+    <t>num_pixels</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Rg</t>
+  </si>
+  <si>
+    <t>perimeter</t>
+  </si>
+  <si>
+    <t>circularity</t>
+  </si>
+  <si>
+    <t>zbar_opt</t>
+  </si>
+  <si>
+    <t>center_mass_1</t>
+  </si>
+  <si>
+    <t>center_mass_2</t>
+  </si>
+  <si>
+    <t>dp_kook</t>
   </si>
   <si>
     <t>dp</t>
@@ -753,7 +828,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -770,11 +845,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -785,6 +861,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -819,63 +896,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
@@ -931,7 +1008,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="B3" s="0">
         <v>2</v>
@@ -987,7 +1064,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="B4" s="0">
         <v>3</v>
@@ -1039,7 +1116,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="B5" s="0">
         <v>4</v>
@@ -1095,7 +1172,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="B6" s="0">
         <v>5</v>
@@ -1151,7 +1228,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="B7" s="0">
         <v>6</v>
@@ -1207,7 +1284,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="B8" s="0">
         <v>7</v>
@@ -1263,7 +1340,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="B9" s="0">
         <v>8</v>
@@ -1319,7 +1396,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="B10" s="0">
         <v>9</v>
@@ -1375,7 +1452,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="B11" s="0">
         <v>10</v>
@@ -1431,7 +1508,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="B12" s="0">
         <v>11</v>
@@ -1487,7 +1564,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="B13" s="0">
         <v>12</v>
@@ -1543,7 +1620,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="B14" s="0">
         <v>13</v>
@@ -1599,7 +1676,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="B15" s="0">
         <v>14</v>
@@ -1655,7 +1732,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="B16" s="0">
         <v>15</v>
@@ -1711,7 +1788,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="B17" s="0">
         <v>16</v>
@@ -1763,7 +1840,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="B18" s="0">
         <v>17</v>
@@ -1819,7 +1896,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="B19" s="0">
         <v>18</v>
@@ -1871,7 +1948,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="B20" s="0">
         <v>19</v>
@@ -1923,7 +2000,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="B21" s="0">
         <v>20</v>
@@ -1979,7 +2056,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="B22" s="0">
         <v>21</v>
@@ -2035,7 +2112,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="B23" s="0">
         <v>22</v>
@@ -2087,7 +2164,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="B24" s="0">
         <v>23</v>
@@ -2139,7 +2216,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="B25" s="0">
         <v>24</v>
@@ -2195,7 +2272,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="B26" s="0">
         <v>25</v>
@@ -2251,7 +2328,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="B27" s="0">
         <v>26</v>
@@ -2303,7 +2380,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="B28" s="0">
         <v>27</v>
@@ -2359,7 +2436,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="B29" s="0">
         <v>28</v>
@@ -2415,7 +2492,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="B30" s="0">
         <v>29</v>
@@ -2471,7 +2548,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="B31" s="0">
         <v>30</v>
@@ -2523,7 +2600,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B32" s="0">
         <v>31</v>
@@ -2575,7 +2652,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B33" s="0">
         <v>32</v>
@@ -2631,7 +2708,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B34" s="0">
         <v>33</v>
@@ -2687,7 +2764,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B35" s="0">
         <v>34</v>
@@ -2739,7 +2816,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B36" s="0">
         <v>35</v>
@@ -2791,7 +2868,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B37" s="0">
         <v>36</v>
@@ -2847,7 +2924,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B38" s="0">
         <v>37</v>
@@ -2903,7 +2980,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B39" s="0">
         <v>38</v>
@@ -2959,7 +3036,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B40" s="0">
         <v>39</v>
@@ -3015,7 +3092,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B41" s="0">
         <v>40</v>
@@ -3071,7 +3148,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B42" s="0">
         <v>41</v>
@@ -3127,7 +3204,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B43" s="0">
         <v>42</v>
@@ -3183,7 +3260,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B44" s="0">
         <v>43</v>
@@ -3235,7 +3312,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B45" s="0">
         <v>44</v>
@@ -3287,7 +3364,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B46" s="0">
         <v>45</v>
@@ -3339,7 +3416,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B47" s="0">
         <v>46</v>
@@ -3391,7 +3468,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B48" s="0">
         <v>47</v>
@@ -3443,7 +3520,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B49" s="0">
         <v>48</v>
@@ -3499,7 +3576,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B50" s="0">
         <v>49</v>
@@ -3551,7 +3628,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B51" s="0">
         <v>50</v>
@@ -3603,7 +3680,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B52" s="0">
         <v>51</v>
@@ -3659,7 +3736,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B53" s="0">
         <v>52</v>
@@ -3715,7 +3792,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B54" s="0">
         <v>53</v>
@@ -3771,7 +3848,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B55" s="0">
         <v>54</v>
@@ -3823,7 +3900,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B56" s="0">
         <v>55</v>
@@ -3875,7 +3952,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B57" s="0">
         <v>56</v>
@@ -3931,7 +4008,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B58" s="0">
         <v>57</v>
@@ -3987,7 +4064,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B59" s="0">
         <v>58</v>
@@ -4043,7 +4120,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B60" s="0">
         <v>59</v>
@@ -4095,7 +4172,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B61" s="0">
         <v>60</v>

--- a/processed_data/small_validation_data/kmeans_results.xlsx
+++ b/processed_data/small_validation_data/kmeans_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="290">
   <si>
     <t>fname</t>
   </si>
@@ -655,6 +655,81 @@
   </si>
   <si>
     <t>dp_pcm</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0024.tif</t>
+  </si>
+  <si>
+    <t>c3_343a_2322K_4.6atm_0025.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0008.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0012.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0013.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0014.tif</t>
+  </si>
+  <si>
+    <t>c3_344b_2203K_4.9atm_0015.tif</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>img_id</t>
+  </si>
+  <si>
+    <t>pixsize</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>aspect_ratio</t>
+  </si>
+  <si>
+    <t>num_pixels</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Rg</t>
+  </si>
+  <si>
+    <t>perimeter</t>
+  </si>
+  <si>
+    <t>circularity</t>
+  </si>
+  <si>
+    <t>zbar_opt</t>
+  </si>
+  <si>
+    <t>center_mass_1</t>
+  </si>
+  <si>
+    <t>center_mass_2</t>
+  </si>
+  <si>
+    <t>dp_kook</t>
   </si>
   <si>
     <t>dp</t>
@@ -828,7 +903,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -846,11 +921,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -862,6 +938,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,63 +973,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
@@ -1008,7 +1085,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="B3" s="0">
         <v>2</v>
@@ -1064,7 +1141,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="B4" s="0">
         <v>3</v>
@@ -1116,7 +1193,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="B5" s="0">
         <v>4</v>
@@ -1172,7 +1249,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="B6" s="0">
         <v>5</v>
@@ -1228,7 +1305,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="B7" s="0">
         <v>6</v>
@@ -1284,7 +1361,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="B8" s="0">
         <v>7</v>
@@ -1340,7 +1417,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="B9" s="0">
         <v>8</v>
@@ -1396,7 +1473,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="B10" s="0">
         <v>9</v>
@@ -1452,7 +1529,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="B11" s="0">
         <v>10</v>
@@ -1508,7 +1585,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="B12" s="0">
         <v>11</v>
@@ -1564,7 +1641,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="B13" s="0">
         <v>12</v>
@@ -1620,7 +1697,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="B14" s="0">
         <v>13</v>
@@ -1676,7 +1753,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="B15" s="0">
         <v>14</v>
@@ -1732,7 +1809,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="B16" s="0">
         <v>15</v>
@@ -1788,7 +1865,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="B17" s="0">
         <v>16</v>
@@ -1840,7 +1917,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="B18" s="0">
         <v>17</v>
@@ -1896,7 +1973,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="B19" s="0">
         <v>18</v>
@@ -1948,7 +2025,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="B20" s="0">
         <v>19</v>
@@ -2000,7 +2077,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="B21" s="0">
         <v>20</v>
@@ -2056,7 +2133,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="B22" s="0">
         <v>21</v>
@@ -2112,7 +2189,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="B23" s="0">
         <v>22</v>
@@ -2164,7 +2241,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="B24" s="0">
         <v>23</v>
@@ -2216,7 +2293,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="B25" s="0">
         <v>24</v>
@@ -2272,7 +2349,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="B26" s="0">
         <v>25</v>
@@ -2328,7 +2405,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="B27" s="0">
         <v>26</v>
@@ -2380,7 +2457,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="B28" s="0">
         <v>27</v>
@@ -2436,7 +2513,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="B29" s="0">
         <v>28</v>
@@ -2492,7 +2569,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="B30" s="0">
         <v>29</v>
@@ -2548,7 +2625,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="B31" s="0">
         <v>30</v>
@@ -2600,7 +2677,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B32" s="0">
         <v>31</v>
@@ -2652,7 +2729,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B33" s="0">
         <v>32</v>
@@ -2708,7 +2785,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B34" s="0">
         <v>33</v>
@@ -2764,7 +2841,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B35" s="0">
         <v>34</v>
@@ -2816,7 +2893,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B36" s="0">
         <v>35</v>
@@ -2868,7 +2945,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B37" s="0">
         <v>36</v>
@@ -2924,7 +3001,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B38" s="0">
         <v>37</v>
@@ -2980,7 +3057,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B39" s="0">
         <v>38</v>
@@ -3036,7 +3113,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B40" s="0">
         <v>39</v>
@@ -3092,7 +3169,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B41" s="0">
         <v>40</v>
@@ -3148,7 +3225,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B42" s="0">
         <v>41</v>
@@ -3204,7 +3281,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B43" s="0">
         <v>42</v>
@@ -3260,7 +3337,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B44" s="0">
         <v>43</v>
@@ -3312,7 +3389,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B45" s="0">
         <v>44</v>
@@ -3364,7 +3441,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B46" s="0">
         <v>45</v>
@@ -3416,7 +3493,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B47" s="0">
         <v>46</v>
@@ -3468,7 +3545,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B48" s="0">
         <v>47</v>
@@ -3520,7 +3597,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B49" s="0">
         <v>48</v>
@@ -3576,7 +3653,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B50" s="0">
         <v>49</v>
@@ -3628,7 +3705,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B51" s="0">
         <v>50</v>
@@ -3680,7 +3757,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B52" s="0">
         <v>51</v>
@@ -3736,7 +3813,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B53" s="0">
         <v>52</v>
@@ -3792,7 +3869,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B54" s="0">
         <v>53</v>
@@ -3848,7 +3925,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B55" s="0">
         <v>54</v>
@@ -3900,7 +3977,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B56" s="0">
         <v>55</v>
@@ -3952,7 +4029,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B57" s="0">
         <v>56</v>
@@ -4008,7 +4085,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B58" s="0">
         <v>57</v>
@@ -4064,7 +4141,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B59" s="0">
         <v>58</v>
@@ -4120,7 +4197,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B60" s="0">
         <v>59</v>
@@ -4172,7 +4249,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B61" s="0">
         <v>60</v>
